--- a/excel/finished/原供料/8.炼焦煤每日库存动态表.xlsx
+++ b/excel/finished/原供料/8.炼焦煤每日库存动态表.xlsx
@@ -321,77 +321,77 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="77">
-    <numFmt numFmtId="176" formatCode="_-#,###,_-;\(#,###,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\¥_-;\-* #,##0.00\¥_-;_-* &quot;-&quot;??\¥_-;_-@_-"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="_-#,###,_-;\(#,###,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.000_);\(&quot;$&quot;#,##0.000\)"/>
+    <numFmt numFmtId="181" formatCode="\$#,##0.00;\(\$#,##0.00\)"/>
+    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="185" formatCode="0%;\(0%\)"/>
+    <numFmt numFmtId="186" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.000_);\(&quot;$&quot;#,##0.000\)"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="[Blue]#,##0_);[Blue]\(#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00\¥_-;\-* #,##0.00\¥_-;_-* &quot;-&quot;??\¥_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="\$#,##0.00;\(\$#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="190" formatCode="_-#,###.00,_-;\(#,###.00,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="191" formatCode="#,##0.00\¥;[Red]\-#,##0.00\¥"/>
+    <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="193" formatCode="[Red]0.0%;[Red]\(0.0%\)"/>
+    <numFmt numFmtId="194" formatCode="0.000%"/>
+    <numFmt numFmtId="195" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0_);[Red]\(\¥#,##0\)"/>
+    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="198" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="199" formatCode="#,##0.00\¥;\-#,##0.00\¥"/>
+    <numFmt numFmtId="200" formatCode="_-#0&quot;.&quot;0,_-;\(#0&quot;.&quot;0,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="201" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="202" formatCode="\(#,##0\)\ "/>
+    <numFmt numFmtId="203" formatCode="#,##0_);[Blue]\(#,##0\)"/>
+    <numFmt numFmtId="204" formatCode="mmm/yyyy;_-\ &quot;N/A&quot;_-;_-\ &quot;-&quot;_-"/>
+    <numFmt numFmtId="205" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="206" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="207" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="208" formatCode="#,##0;[Red]\(#,##0\)"/>
+    <numFmt numFmtId="209" formatCode="_-#,##0_-;\(#,##0\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="210" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="211" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="212" formatCode="_-#,##0%_-;\(#,##0%\);_-\ &quot;-&quot;_-"/>
+    <numFmt numFmtId="213" formatCode="mmm/dd/yyyy;_-\ &quot;N/A&quot;_-;_-\ &quot;-&quot;_-"/>
+    <numFmt numFmtId="214" formatCode="_-#,##0.00_-;\(#,##0.00\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="215" formatCode="_-#0&quot;.&quot;0000_-;\(#0&quot;.&quot;0000\);_-\ \ &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="216" formatCode="&quot;\&quot;#,##0;&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="217" formatCode="0.0000%"/>
+    <numFmt numFmtId="218" formatCode="0.00_)"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
-    <numFmt numFmtId="185" formatCode="#,##0_);[Blue]\(#,##0\)"/>
-    <numFmt numFmtId="186" formatCode="[Blue]#,##0_);[Blue]\(#,##0\)"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="188" formatCode="_-#,##0.00_-;\(#,##0.00\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="0.0%"/>
-    <numFmt numFmtId="190" formatCode="0%;\(0%\)"/>
-    <numFmt numFmtId="191" formatCode="_-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * #,##0.00\-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="192" formatCode="\(#,##0\)\ "/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0_);[Red]\(\¥#,##0\)"/>
-    <numFmt numFmtId="194" formatCode="_-#0&quot;.&quot;0000_-;\(#0&quot;.&quot;0000\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="195" formatCode="mmm/dd/yyyy;_-\ &quot;N/A&quot;_-;_-\ &quot;-&quot;_-"/>
-    <numFmt numFmtId="196" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="198" formatCode="&quot;$&quot;\ #,##0.00_-;[Red]&quot;$&quot;\ #,##0.00\-"/>
-    <numFmt numFmtId="199" formatCode="#,##0.00\ &quot;$&quot;_);[Red]\(#,##0.00\ &quot;$&quot;\)"/>
-    <numFmt numFmtId="200" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="201" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
-    <numFmt numFmtId="202" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="203" formatCode="mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="204" formatCode="0.0000%"/>
-    <numFmt numFmtId="205" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="206" formatCode="_-* #,##0\¥_-;\-* #,##0\¥_-;_-* &quot;-&quot;\¥_-;_-@_-"/>
-    <numFmt numFmtId="207" formatCode="\$#,##0;\(\$#,##0\)"/>
-    <numFmt numFmtId="208" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="209" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="210" formatCode="#,##0;[Red]\(#,##0\)"/>
-    <numFmt numFmtId="211" formatCode="_-#,##0%_-;\(#,##0%\);_-\ &quot;-&quot;_-"/>
-    <numFmt numFmtId="212" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="213" formatCode="mmm/yyyy;_-\ &quot;N/A&quot;_-;_-\ &quot;-&quot;_-"/>
-    <numFmt numFmtId="214" formatCode="[Red]0.0%;[Red]\(0.0%\)"/>
-    <numFmt numFmtId="215" formatCode="#,##0.00\¥;\-#,##0.00\¥"/>
-    <numFmt numFmtId="216" formatCode="_-#,##0_-;\(#,##0\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="217" formatCode="0.000%"/>
-    <numFmt numFmtId="218" formatCode="_-#,###.00,_-;\(#,###.00,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="219" formatCode="0.00_)"/>
-    <numFmt numFmtId="220" formatCode="_-#0&quot;.&quot;0,_-;\(#0&quot;.&quot;0,\);_-\ \ &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="221" formatCode="&quot;\&quot;#,##0;&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="222" formatCode="_-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * #,##0\-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="223" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="224" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="225" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="226" formatCode="#,##0.00\¥;[Red]\-#,##0.00\¥"/>
-    <numFmt numFmtId="227" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="228" formatCode="0_)"/>
-    <numFmt numFmtId="229" formatCode="_-* #,##0.00&quot;$&quot;_-;\-* #,##0.00&quot;$&quot;_-;_-* &quot;-&quot;??&quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="230" formatCode="#,##0_);\(#,##0_)"/>
-    <numFmt numFmtId="231" formatCode="_(* #,##0.0,_);_(* \(#,##0.0,\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="232" formatCode="yy\.mm\.dd"/>
-    <numFmt numFmtId="233" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="234" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="235" formatCode="_-* #,##0_$_-;\-* #,##0_$_-;_-* &quot;-&quot;_$_-;_-@_-"/>
-    <numFmt numFmtId="236" formatCode="_-* #,##0.00_$_-;\-* #,##0.00_$_-;_-* &quot;-&quot;??_$_-;_-@_-"/>
-    <numFmt numFmtId="237" formatCode="_-* #,##0&quot;$&quot;_-;\-* #,##0&quot;$&quot;_-;_-* &quot;-&quot;&quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="238" formatCode="_-* #,##0.00_餩._-;\-* #,##0.00_餩._-;_-* &quot;-&quot;??_餩._-;_-@_-"/>
-    <numFmt numFmtId="239" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="240" formatCode="0.0"/>
+    <numFmt numFmtId="219" formatCode="_-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * #,##0.00\-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="220" formatCode="#,##0.00\ &quot;$&quot;_);[Red]\(#,##0.00\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="221" formatCode="\$#,##0;\(\$#,##0\)"/>
+    <numFmt numFmtId="222" formatCode="_-* #,##0\¥_-;\-* #,##0\¥_-;_-* &quot;-&quot;\¥_-;_-@_-"/>
+    <numFmt numFmtId="223" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="224" formatCode="&quot;$&quot;\ #,##0.00_-;[Red]&quot;$&quot;\ #,##0.00\-"/>
+    <numFmt numFmtId="225" formatCode="_-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * #,##0\-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="226" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="227" formatCode="_-* #,##0.00_餩._-;\-* #,##0.00_餩._-;_-* &quot;-&quot;??_餩._-;_-@_-"/>
+    <numFmt numFmtId="228" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="229" formatCode="0.0"/>
+    <numFmt numFmtId="230" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="231" formatCode="0_)"/>
+    <numFmt numFmtId="232" formatCode="_-* #,##0.00&quot;$&quot;_-;\-* #,##0.00&quot;$&quot;_-;_-* &quot;-&quot;??&quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="233" formatCode="#,##0_);\(#,##0_)"/>
+    <numFmt numFmtId="234" formatCode="_(* #,##0.0,_);_(* \(#,##0.0,\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="235" formatCode="yy\.mm\.dd"/>
+    <numFmt numFmtId="236" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="237" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="238" formatCode="_-* #,##0_$_-;\-* #,##0_$_-;_-* &quot;-&quot;_$_-;_-@_-"/>
+    <numFmt numFmtId="239" formatCode="_-* #,##0.00_$_-;\-* #,##0.00_$_-;_-* &quot;-&quot;??_$_-;_-@_-"/>
+    <numFmt numFmtId="240" formatCode="_-* #,##0&quot;$&quot;_-;\-* #,##0&quot;$&quot;_-;_-* &quot;-&quot;&quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="241" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="242" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="243" formatCode="0_ "/>
@@ -439,6 +439,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Tms Rmn"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="????"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.25"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -446,45 +574,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -492,8 +582,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
     <font>
@@ -503,25 +593,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="바탕체"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
+      <name val="絡遺"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,9 +631,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS P????"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -554,37 +709,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="????"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,6 +729,388 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="0"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="36"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="·s²Ó©úÅé"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tms Rmn"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="官帕眉"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="冼极"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="·s²Ó©úÅé"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Book Antiqua"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Tms Rmn"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tms Rmn"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="MS Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Small Fonts"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.25"/>
+      <color indexed="36"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color indexed="36"/>
@@ -605,515 +1119,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Tms Rmn"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS P????"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="絡遺"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8.25"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Courier"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="·s²Ó©úÅé"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="官帕眉"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="冼极"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u val="singleAccounting"/>
-      <vertAlign val="subscript"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="·s²Ó©úÅé"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Book Antiqua"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Tms Rmn"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="0"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Tms Rmn"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="MS Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color indexed="36"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Small Fonts"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8.25"/>
-      <color indexed="36"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tms Rmn"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color indexed="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="20"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="39"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1229,12 +1235,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="18"/>
@@ -1273,7 +1273,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Courier"/>
+      <name val="바탕체"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1330,19 +1330,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,13 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,13 +1456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,7 +1492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,73 +1510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,61 +1528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,19 +1540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,13 +1552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,13 +1576,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,14 +1600,88 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="45"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="48"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="9"/>
+        <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="27"/>
       </patternFill>
     </fill>
     <fill>
@@ -1630,14 +1692,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="31"/>
+        <fgColor indexed="54"/>
+        <bgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
@@ -1654,26 +1722,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="54"/>
       </patternFill>
     </fill>
     <fill>
@@ -1684,19 +1734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="12"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,50 +1782,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor indexed="9"/>
-        <bgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkVertical"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor indexed="48"/>
-        <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="54"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1796,7 +1796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1998,9 +1998,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color theme="8"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2022,17 +2024,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2042,17 +2033,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2324,6 +2304,30 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2343,6 +2347,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2353,16 +2372,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2387,60 +2421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -2456,26 +2436,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2491,6 +2458,30 @@
       </top>
       <bottom style="thin">
         <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="41"/>
+      </left>
+      <right style="thin">
+        <color indexed="48"/>
+      </right>
+      <top style="medium">
+        <color indexed="41"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2545,17 +2536,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="30"/>
@@ -2563,17 +2543,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="41"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="48"/>
+        <color indexed="22"/>
       </right>
-      <top style="medium">
-        <color indexed="41"/>
+      <top style="thin">
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="48"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2609,17 +2600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -2640,7 +2620,11 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2650,1550 +2634,1546 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="24" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="193" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="192" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="201" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="40" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="201" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="197" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="40" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="26">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="28">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="212" fontId="78" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="84" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="39" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="211" fontId="62" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="214" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="209" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="209" fontId="60" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="73" borderId="51" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="214" fontId="60" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="213" fontId="84" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="60" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="60" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="215" fontId="60" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="213" fontId="68" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="39" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="216" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="36" fillId="64" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="68" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="194" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="55"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="219" fontId="74" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="54"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="218" fontId="91" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="92" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="76" fillId="65" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="203" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="68" fillId="58" borderId="51" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="39" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0"/>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="205" fontId="77" fillId="0" borderId="56" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="73" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="210" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0"/>
-    <xf numFmtId="25" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="221" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="60" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="15" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="209" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="207" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="86" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="184" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="4" borderId="14"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="212" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="86" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="71" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="91" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="59">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="211" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="192" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="95" fillId="0" borderId="55" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="justify" vertical="justify" textRotation="127" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="81" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="217" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="208" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0"/>
+    <xf numFmtId="25" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="77" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="216" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="219" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="15" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="205" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="221" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="94" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="203" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="14"/>
+    <xf numFmtId="206" fontId="60" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="94" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="50">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="38" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="71" fillId="8" borderId="14" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="215" fontId="14" fillId="74" borderId="0"/>
-    <xf numFmtId="215" fontId="14" fillId="74" borderId="0"/>
-    <xf numFmtId="187" fontId="32" fillId="74" borderId="0"/>
-    <xf numFmtId="38" fontId="99" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="102" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="86" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="215" fontId="14" fillId="75" borderId="0"/>
-    <xf numFmtId="215" fontId="14" fillId="75" borderId="0"/>
-    <xf numFmtId="187" fontId="103" fillId="75" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="217" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="1"/>
-    <xf numFmtId="199" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="197" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="198" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="222" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="72" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="105" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="3" borderId="0"/>
-    <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="214" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="54" fillId="51" borderId="14" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="14" fillId="74" borderId="0"/>
+    <xf numFmtId="199" fontId="14" fillId="74" borderId="0"/>
+    <xf numFmtId="184" fontId="105" fillId="74" borderId="0"/>
+    <xf numFmtId="38" fontId="106" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="108" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="94" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="203" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="199" fontId="14" fillId="75" borderId="0"/>
+    <xf numFmtId="199" fontId="14" fillId="75" borderId="0"/>
+    <xf numFmtId="184" fontId="93" fillId="75" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="1"/>
+    <xf numFmtId="220" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="222" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="223" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="83" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="110" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="0"/>
+    <xf numFmtId="9" fontId="60" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="60" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="4" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="223" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="14"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="86" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="63" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="4" fontId="36" fillId="66" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="4" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="226" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="14"/>
+    <xf numFmtId="0" fontId="76" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="94" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="4" fontId="32" fillId="31" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="224" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="203" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="210" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="1">
+    <xf numFmtId="15" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="77" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="109" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="110" fillId="78" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="57" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="72" fillId="62" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="225" fontId="111" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="207" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="226" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="191" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="226" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="191" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="113" fillId="65" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="76" fillId="65" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="75" fillId="58" borderId="51" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="68" fillId="58" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="76" fillId="65" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="58" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="76" fillId="79" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="68" fillId="61" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="34" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="6" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="25" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="60" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="54" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="53" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="56" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="39" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="59" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="5" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="5" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="36" fillId="44" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="7" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="76" fillId="80" borderId="61" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="68" fillId="60" borderId="52" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="81" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="114" fillId="82" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="113" fillId="82" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="79" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="4" fontId="32" fillId="61" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="4" fontId="36" fillId="81" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="79" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="61" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="82" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="82" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="82" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="82" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="79" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="61" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="79" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="61" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="81" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="53" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="81" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="53" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="8" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="116" fillId="8" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="36" fillId="8" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="51" borderId="51" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="117" fillId="51" borderId="51" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="51" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="51" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="81" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="53" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="116" fillId="81" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="117" fillId="53" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="79" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="32" fillId="61" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="79" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="61" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="117" fillId="74" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="118" fillId="74" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="118" fillId="81" borderId="54" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="119" fillId="53" borderId="51" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="1" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="72" fillId="1" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="227" fontId="119" fillId="0" borderId="0"/>
-    <xf numFmtId="228" fontId="36" fillId="0" borderId="31">
+    <xf numFmtId="230" fontId="120" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="121" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="231" fontId="32" fillId="0" borderId="29">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="232" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="229" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="121" fillId="83" borderId="29">
+    <xf numFmtId="0" fontId="122" fillId="83" borderId="27">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="14">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0"/>
-    <xf numFmtId="40" fontId="124" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0"/>
+    <xf numFmtId="40" fontId="125" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="83" borderId="29">
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="83" borderId="27">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="83" borderId="29">
+    <xf numFmtId="0" fontId="122" fillId="83" borderId="27">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="125" fillId="0" borderId="62" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="37" fontId="126" fillId="0" borderId="61" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="203" fontId="86" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="126" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="230" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="231" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="63" applyProtection="0"/>
-    <xf numFmtId="9" fontId="127" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="127" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="94" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="233" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="234" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="62" applyProtection="0"/>
+    <xf numFmtId="9" fontId="128" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="197" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="211" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="76" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="87" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -4221,17 +4201,17 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="83" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="72" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="62" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="212" fontId="78" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4256,410 +4236,407 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="211" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="232" fontId="9" fillId="0" borderId="34" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="235" fontId="6" fillId="0" borderId="32" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="88" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4688,10 +4665,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="73" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="98" fillId="81" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -4710,86 +4690,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -4847,6 +4821,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4864,11 +4841,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -4899,16 +4879,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="38" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="98" fillId="38" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4978,14 +4958,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -5138,299 +5118,299 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="120" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="120" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="121" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5441,71 +5421,71 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="233" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="234" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="73" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="73" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="73" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="236" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="237" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="81" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="81" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="81" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="140" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="235" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="236" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="237" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="66">
+    <xf numFmtId="238" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="239" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="240" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="64">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="73" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="60" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="60" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5514,119 +5494,119 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="214" fontId="60" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="238" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="227" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="239" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="239" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="228" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="228" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="38" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="38" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="34" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="83" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="32" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="14">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0"/>
-    <xf numFmtId="240" fontId="4" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="14">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0"/>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="211" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="14" applyNumberFormat="0"/>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" applyNumberFormat="0"/>
+    <xf numFmtId="38" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5701,64 +5681,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="4" fillId="0" borderId="13" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="4" fillId="0" borderId="13" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="4" fillId="0" borderId="14" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="4" fillId="0" borderId="14" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="3" fillId="0" borderId="17" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="3" fillId="0" borderId="17" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="244" fontId="4" fillId="3" borderId="13" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="4" fillId="3" borderId="13" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="244" fontId="3" fillId="3" borderId="14" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="3" fillId="3" borderId="14" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="243" fontId="4" fillId="3" borderId="13" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="243" fontId="4" fillId="3" borderId="14" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="243" fontId="3" fillId="3" borderId="17" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="243" fontId="4" fillId="3" borderId="13" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="4" fillId="3" borderId="14" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="4" fillId="3" borderId="18" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="3" fillId="3" borderId="17" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="4" fillId="3" borderId="20" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="4" fillId="3" borderId="18" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="4" fillId="3" borderId="19" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="4" fillId="3" borderId="22" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="3" fillId="3" borderId="21" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="244" fontId="4" fillId="3" borderId="19" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="3" fillId="3" borderId="23" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="243" fontId="3" fillId="3" borderId="23" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="243" fontId="3" fillId="3" borderId="25" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="243" fontId="3" fillId="3" borderId="24" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="3" fillId="3" borderId="22" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5773,7 +5753,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5782,157 +5762,157 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="242" fontId="5" fillId="4" borderId="14" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="242" fontId="5" fillId="4" borderId="14" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="244" fontId="3" fillId="3" borderId="28" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="3" fillId="3" borderId="26" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="240" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="244" fontId="4" fillId="3" borderId="27" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="4" fillId="3" borderId="25" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="244" fontId="3" fillId="3" borderId="29" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="3" fillId="3" borderId="27" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="240" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="244" fontId="3" fillId="3" borderId="31" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="3" fillId="3" borderId="29" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="240" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="240" fontId="3" fillId="3" borderId="21" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="3" borderId="19" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="240" fontId="3" fillId="3" borderId="12" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="3" borderId="12" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="240" fontId="3" fillId="3" borderId="17" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="3" borderId="17" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="244" fontId="4" fillId="3" borderId="22" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="4" fillId="3" borderId="20" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="242" fontId="5" fillId="4" borderId="25" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="242" fontId="5" fillId="4" borderId="23" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="244" fontId="3" fillId="3" borderId="25" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="3" fillId="3" borderId="23" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="240" fontId="3" fillId="3" borderId="24" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="3" borderId="22" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="3" fillId="3" borderId="32" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="3" fillId="3" borderId="30" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="242" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="245" fontId="3" fillId="3" borderId="25" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="5" fillId="5" borderId="14" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="246" fontId="3" fillId="3" borderId="14" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="242" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="245" fontId="3" fillId="3" borderId="27" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="1061" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="244" fontId="5" fillId="5" borderId="14" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="1061" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="244" fontId="3" fillId="3" borderId="25" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="229" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="229" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="1061" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="1061" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="245" fontId="3" fillId="3" borderId="30" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="244" fontId="5" fillId="5" borderId="23" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="246" fontId="3" fillId="3" borderId="14" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="246" fontId="3" fillId="3" borderId="23" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="240" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="3" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="1060" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="1060" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="244" fontId="3" fillId="3" borderId="27" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="240" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="240" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="1060" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="1060" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="245" fontId="3" fillId="3" borderId="32" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="244" fontId="5" fillId="5" borderId="25" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="246" fontId="3" fillId="3" borderId="25" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="240" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="244" fontId="3" fillId="3" borderId="32" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="3" fillId="3" borderId="30" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="246" fontId="3" fillId="3" borderId="21" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="246" fontId="3" fillId="3" borderId="19" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="241" fontId="3" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="241" fontId="3" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="246" fontId="3" fillId="3" borderId="30" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="246" fontId="3" fillId="3" borderId="28" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="246" fontId="3" fillId="3" borderId="12" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="246" fontId="3" fillId="3" borderId="12" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="246" fontId="3" fillId="3" borderId="24" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="246" fontId="3" fillId="3" borderId="22" xfId="1061" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="241" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="241" fontId="3" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5940,12 +5920,12 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="_2013高线预算表发生产厂（第4稿）" xfId="2"/>
-    <cellStyle name="常规 39" xfId="3"/>
-    <cellStyle name="常规 44" xfId="4"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="60% - 着色 2" xfId="6"/>
-    <cellStyle name="输入" xfId="7" builtinId="20"/>
-    <cellStyle name="?…????è [0.00]_Region Orders (2)" xfId="8"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="?…????è [0.00]_Region Orders (2)" xfId="4"/>
+    <cellStyle name="常规 44" xfId="5"/>
+    <cellStyle name="常规 39" xfId="6"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="60% - 着色 2" xfId="8"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="9" builtinId="38"/>
     <cellStyle name="args.style" xfId="10"/>
     <cellStyle name="_Book1_2_降成本（7）" xfId="11"/>
@@ -5953,11 +5933,11 @@
     <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
     <cellStyle name="_2014本月同比" xfId="14"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="15" builtinId="39"/>
-    <cellStyle name="Calc Percent (1)" xfId="16"/>
-    <cellStyle name="?…????è_Region Orders (2)" xfId="17"/>
+    <cellStyle name="?…????è_Region Orders (2)" xfId="16"/>
+    <cellStyle name="Calc Percent (1)" xfId="17"/>
     <cellStyle name="20% - 强调文字颜色 6 2_2018年火车局车误时费日记录表表" xfId="18"/>
-    <cellStyle name="?? 2 2" xfId="19"/>
-    <cellStyle name="计算 2" xfId="20"/>
+    <cellStyle name="计算 2" xfId="19"/>
+    <cellStyle name="?? 2 2" xfId="20"/>
     <cellStyle name="差" xfId="21" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="22" builtinId="3"/>
     <cellStyle name="超链接" xfId="23" builtinId="8"/>
@@ -5967,28 +5947,28 @@
     <cellStyle name="_2013高线预算表（第5稿）" xfId="27"/>
     <cellStyle name="_Book2" xfId="28"/>
     <cellStyle name="百分比" xfId="29" builtinId="5"/>
-    <cellStyle name="_kcb" xfId="30"/>
-    <cellStyle name="60% - 强调文字颜色 5 2_棒线材产品销售跟踪表" xfId="31"/>
+    <cellStyle name="60% - 强调文字颜色 5 2_棒线材产品销售跟踪表" xfId="30"/>
+    <cellStyle name="_kcb" xfId="31"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="_ET_STYLE_NoName_00__Sheet3" xfId="33"/>
-    <cellStyle name="注释" xfId="34" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="35"/>
+    <cellStyle name="注释" xfId="33" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="34"/>
+    <cellStyle name="_ET_STYLE_NoName_00__Sheet3" xfId="35"/>
     <cellStyle name="_各对比表(1203累计）按预算结构还原因素分析" xfId="36"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="37" builtinId="36"/>
     <cellStyle name="标题 4" xfId="38" builtinId="19"/>
     <cellStyle name="警告文本" xfId="39" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="40"/>
+    <cellStyle name="Currency$[0]" xfId="40"/>
     <cellStyle name="Calc Units (0)" xfId="41"/>
-    <cellStyle name="Currency$[0]" xfId="42"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="42"/>
     <cellStyle name="标题" xfId="43" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="44" builtinId="53"/>
     <cellStyle name="_Book1_2_2012各科成本分析" xfId="45"/>
     <cellStyle name="标题 1" xfId="46" builtinId="16"/>
-    <cellStyle name="0%" xfId="47"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="48"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="47"/>
+    <cellStyle name="0%" xfId="48"/>
     <cellStyle name="标题 2" xfId="49" builtinId="17"/>
-    <cellStyle name="_12年09月炼轧厂预算报表-钢、棒一(一稿)" xfId="50"/>
-    <cellStyle name="_Wuxi Bao-Mit_F.Inventory" xfId="51"/>
+    <cellStyle name="_Wuxi Bao-Mit_F.Inventory" xfId="50"/>
+    <cellStyle name="_12年09月炼轧厂预算报表-钢、棒一(一稿)" xfId="51"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="52" builtinId="32"/>
     <cellStyle name="标题 3" xfId="53" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="54" builtinId="44"/>
@@ -6003,8 +5983,8 @@
     <cellStyle name="好_2009年一般性转移支付标准工资_地方配套按人均增幅控制8.30一般预算平均增幅、人均可用财力平均增幅两次控制、社会治安系数调整、案件数调整xl" xfId="63"/>
     <cellStyle name="40% - 强调文字颜色 5 2_2018年火车局车误时费日记录表表" xfId="64"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="65" builtinId="50"/>
-    <cellStyle name="_1123试算平衡表（模板）（马雪泉）" xfId="66"/>
-    <cellStyle name="Currency [0]" xfId="67"/>
+    <cellStyle name="Currency [0]" xfId="66"/>
+    <cellStyle name="_1123试算平衡表（模板）（马雪泉）" xfId="67"/>
     <cellStyle name="强调文字颜色 2" xfId="68" builtinId="33"/>
     <cellStyle name="_12年实际按13年预算第5稿分析" xfId="69"/>
     <cellStyle name="链接单元格" xfId="70" builtinId="24"/>
@@ -6026,9 +6006,9 @@
     <cellStyle name="强调文字颜色 3" xfId="86" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="87" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="88" builtinId="42"/>
-    <cellStyle name="计算 3" xfId="89"/>
-    <cellStyle name="?? 2 3" xfId="90"/>
-    <cellStyle name="_特色理财产品统计表1" xfId="91"/>
+    <cellStyle name="_特色理财产品统计表1" xfId="89"/>
+    <cellStyle name="计算 3" xfId="90"/>
+    <cellStyle name="?? 2 3" xfId="91"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="92" builtinId="43"/>
     <cellStyle name="³¬¼¶Á´½Ó" xfId="93"/>
     <cellStyle name="强调文字颜色 5" xfId="94" builtinId="45"/>
@@ -6043,250 +6023,250 @@
     <cellStyle name="_F-Lead_1511月铁钢材成本报表" xfId="103"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="104" builtinId="52"/>
     <cellStyle name="????_Analysis of Loans" xfId="105"/>
-    <cellStyle name="??_????????" xfId="106"/>
-    <cellStyle name="Calc Percent (0)" xfId="107"/>
+    <cellStyle name="Calc Percent (0)" xfId="106"/>
+    <cellStyle name="??_????????" xfId="107"/>
     <cellStyle name="?? 3" xfId="108"/>
-    <cellStyle name="?? [0.00]_Analysis of Loans" xfId="109"/>
-    <cellStyle name="40% - 着色 5" xfId="110"/>
+    <cellStyle name="40% - 着色 5" xfId="109"/>
+    <cellStyle name="?? [0.00]_Analysis of Loans" xfId="110"/>
     <cellStyle name="?? 2_2011年战略性业务激励费用挂价表（0301）" xfId="111"/>
     <cellStyle name="Comma  - Style7" xfId="112"/>
     <cellStyle name="Explanatory Text" xfId="113"/>
     <cellStyle name="_x000d__x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x000d__x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x000d__x000a_MAI" xfId="114"/>
-    <cellStyle name="_x000d__x000a_JournalTemplate=C:\COMFO\CTALK\JOURSTD.TPL_x000d__x000a_LbStateAddress=3 3 0 251 1 89 2 311_x000d__x000a_LbStateJou" xfId="115"/>
-    <cellStyle name="Accent4_公安安全支出补充表5.14" xfId="116"/>
-    <cellStyle name="??" xfId="117"/>
-    <cellStyle name="_20130122机动部费用预算（报）" xfId="118"/>
-    <cellStyle name="?? [0]" xfId="119"/>
-    <cellStyle name="捠壿 [0.00]_Region Orders (2)" xfId="120"/>
-    <cellStyle name="Accent4 - 60%" xfId="121"/>
-    <cellStyle name="style2" xfId="122"/>
-    <cellStyle name="Percent[2]" xfId="123"/>
-    <cellStyle name="???? [0.00]_Analysis of Loans" xfId="124"/>
-    <cellStyle name="_复件 目标分解（炼钢）新" xfId="125"/>
-    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_" xfId="126"/>
-    <cellStyle name="_worksheet_N_N" xfId="127"/>
-    <cellStyle name="Calc Currency (0) 2" xfId="128"/>
-    <cellStyle name="?遽_4QURT" xfId="129"/>
-    <cellStyle name="Currency [00]" xfId="130"/>
+    <cellStyle name="Accent4_公安安全支出补充表5.14" xfId="115"/>
+    <cellStyle name="_x000d__x000a_JournalTemplate=C:\COMFO\CTALK\JOURSTD.TPL_x000d__x000a_LbStateAddress=3 3 0 251 1 89 2 311_x000d__x000a_LbStateJou" xfId="116"/>
+    <cellStyle name="_20130122机动部费用预算（报）" xfId="117"/>
+    <cellStyle name="??" xfId="118"/>
+    <cellStyle name="捠壿 [0.00]_Region Orders (2)" xfId="119"/>
+    <cellStyle name="Accent4 - 60%" xfId="120"/>
+    <cellStyle name="?? [0]" xfId="121"/>
+    <cellStyle name="_复件 目标分解（炼钢）新" xfId="122"/>
+    <cellStyle name="style2" xfId="123"/>
+    <cellStyle name="Percent[2]" xfId="124"/>
+    <cellStyle name="???? [0.00]_Analysis of Loans" xfId="125"/>
+    <cellStyle name="_worksheet_N_N" xfId="126"/>
+    <cellStyle name="Calc Currency (0) 2" xfId="127"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_" xfId="128"/>
+    <cellStyle name="Currency [00]" xfId="129"/>
+    <cellStyle name="?遽_4QURT" xfId="130"/>
     <cellStyle name="@_text" xfId="131"/>
-    <cellStyle name="_#2011六项定额预测表" xfId="132"/>
-    <cellStyle name="40% - Accent2" xfId="133"/>
-    <cellStyle name="好_地方配套按人均增幅控制8.31（调整结案率后）xl" xfId="134"/>
-    <cellStyle name="差_Book1" xfId="135"/>
-    <cellStyle name="_(五因素法) 炼轧厂高线工序汇总分析2014年1月" xfId="136"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="137"/>
-    <cellStyle name="_~0254683" xfId="138"/>
+    <cellStyle name="40% - Accent2" xfId="132"/>
+    <cellStyle name="_#2011六项定额预测表" xfId="133"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="134"/>
+    <cellStyle name="好_地方配套按人均增幅控制8.31（调整结案率后）xl" xfId="135"/>
+    <cellStyle name="差_Book1" xfId="136"/>
+    <cellStyle name="_(五因素法) 炼轧厂高线工序汇总分析2014年1月" xfId="137"/>
+    <cellStyle name="_ET_STYLE_NoName_00__到货完成情况分析（3）" xfId="138"/>
     <cellStyle name="_Book1_3_降成本（7）" xfId="139"/>
-    <cellStyle name="_ET_STYLE_NoName_00__到货完成情况分析（3）" xfId="140"/>
-    <cellStyle name="_~1542229" xfId="141"/>
-    <cellStyle name="_2007年综合经营计划表样(计划处20061016)" xfId="142"/>
-    <cellStyle name="_~1723196" xfId="143"/>
-    <cellStyle name="常规 82" xfId="144"/>
-    <cellStyle name="常规 77" xfId="145"/>
-    <cellStyle name="_12年07月炼轧厂预算报表-钢、棒一(定稿)" xfId="146"/>
+    <cellStyle name="_~0254683" xfId="140"/>
+    <cellStyle name="_2007年综合经营计划表样(计划处20061016)" xfId="141"/>
+    <cellStyle name="_~1542229" xfId="142"/>
+    <cellStyle name="常规 82" xfId="143"/>
+    <cellStyle name="常规 77" xfId="144"/>
+    <cellStyle name="_12年07月炼轧厂预算报表-钢、棒一(定稿)" xfId="145"/>
+    <cellStyle name="_~1723196" xfId="146"/>
     <cellStyle name="_☆2010年综合经营计划长期摊销费测算表" xfId="147"/>
     <cellStyle name="常规 161" xfId="148"/>
     <cellStyle name="常规 156" xfId="149"/>
     <cellStyle name="_0712中间业务通报0112" xfId="150"/>
-    <cellStyle name="_07城北利润计划0" xfId="151"/>
-    <cellStyle name="_宽板厂2013年4月分析" xfId="152"/>
-    <cellStyle name="_07年1月考核上报表" xfId="153"/>
-    <cellStyle name="_07年中间业务调整计划（报总行公司部20070731）" xfId="154"/>
-    <cellStyle name="_07年利润测算" xfId="155"/>
-    <cellStyle name="Comma  - Style8" xfId="156"/>
-    <cellStyle name="_07年中间业务调整计划（报总行）" xfId="157"/>
-    <cellStyle name="_2010年工资测算表0309" xfId="158"/>
+    <cellStyle name="_宽板厂2013年4月分析" xfId="151"/>
+    <cellStyle name="_07城北利润计划0" xfId="152"/>
+    <cellStyle name="_07年中间业务调整计划（报总行公司部20070731）" xfId="153"/>
+    <cellStyle name="_07年1月考核上报表" xfId="154"/>
+    <cellStyle name="Comma  - Style8" xfId="155"/>
+    <cellStyle name="_07年利润测算" xfId="156"/>
+    <cellStyle name="_2010年工资测算表0309" xfId="157"/>
+    <cellStyle name="_07年中间业务调整计划（报总行）" xfId="158"/>
     <cellStyle name="_08预算表样20071005－王" xfId="159"/>
-    <cellStyle name="_1" xfId="160"/>
+    <cellStyle name="_高线汇总分析2013年4月" xfId="160"/>
     <cellStyle name="_13年费用预算-三稿" xfId="161"/>
-    <cellStyle name="_高线汇总分析2013年4月" xfId="162"/>
-    <cellStyle name="_12年08月炼轧厂预算报表-钢、棒一(一稿)" xfId="163"/>
-    <cellStyle name="_累计对比年度预算" xfId="164"/>
-    <cellStyle name="Currency,0" xfId="165"/>
-    <cellStyle name="_13年费用预算-二稿" xfId="166"/>
-    <cellStyle name="_各对比表(1203）按预算结构还原因素分析" xfId="167"/>
+    <cellStyle name="_1" xfId="162"/>
+    <cellStyle name="_累计对比年度预算" xfId="163"/>
+    <cellStyle name="_12年08月炼轧厂预算报表-钢、棒一(一稿)" xfId="164"/>
+    <cellStyle name="_各对比表(1203）按预算结构还原因素分析" xfId="165"/>
+    <cellStyle name="Currency,0" xfId="166"/>
+    <cellStyle name="_13年费用预算-二稿" xfId="167"/>
     <cellStyle name="_13年费用预算-四稿" xfId="168"/>
-    <cellStyle name="_2008年预算编制表格(0905)" xfId="169"/>
-    <cellStyle name="_13年费用预算-五稿" xfId="170"/>
-    <cellStyle name="Accent1_公安安全支出补充表5.14" xfId="171"/>
+    <cellStyle name="_13年费用预算-五稿" xfId="169"/>
+    <cellStyle name="Accent1_公安安全支出补充表5.14" xfId="170"/>
+    <cellStyle name="_2008年预算编制表格(0905)" xfId="171"/>
     <cellStyle name="鱔? [0]_95" xfId="172"/>
     <cellStyle name="_1季度计划" xfId="173"/>
-    <cellStyle name="_2005年综合经营计划表（调整后公式）" xfId="174"/>
-    <cellStyle name="Comma  - Style3" xfId="175"/>
-    <cellStyle name="_2006年统筹外资金划拨" xfId="176"/>
+    <cellStyle name="Comma  - Style3" xfId="174"/>
+    <cellStyle name="_2005年综合经营计划表（调整后公式）" xfId="175"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="176"/>
     <cellStyle name="20% - Accent2" xfId="177"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="178"/>
-    <cellStyle name="常规 2 2 3" xfId="179"/>
-    <cellStyle name="_2006年综合经营计划表（云南行用表）" xfId="180"/>
-    <cellStyle name="_2011年1-9月对标(成本明细）" xfId="181"/>
-    <cellStyle name="常规 43" xfId="182"/>
-    <cellStyle name="常规 38" xfId="183"/>
-    <cellStyle name="_宽板2013年4月份分品种成本报表" xfId="184"/>
+    <cellStyle name="_2006年统筹外资金划拨" xfId="178"/>
+    <cellStyle name="常规 43" xfId="179"/>
+    <cellStyle name="常规 38" xfId="180"/>
+    <cellStyle name="_宽板2013年4月份分品种成本报表" xfId="181"/>
+    <cellStyle name="常规 2 2 3" xfId="182"/>
+    <cellStyle name="_2006年综合经营计划表（云南行用表）" xfId="183"/>
+    <cellStyle name="_2011年1-9月对标(成本明细）" xfId="184"/>
     <cellStyle name="差_2009年一般性转移支付标准工资_不用软件计算9.1不考虑经费管理评价xl" xfId="185"/>
     <cellStyle name="_2007各网点中间业务月收入通报工作表070708" xfId="186"/>
-    <cellStyle name="_2007年KPI计划分解表(部门上报样表)" xfId="187"/>
-    <cellStyle name="_二轧因素2012年10月分析(OA)" xfId="188"/>
-    <cellStyle name="0.00%" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="190"/>
-    <cellStyle name="百分比 2 8" xfId="191"/>
-    <cellStyle name="_2007年预算编制表式" xfId="192"/>
-    <cellStyle name="_2012年1-9月成本网对标资料（中钢协返回）" xfId="193"/>
-    <cellStyle name="_2007综合经营计划表" xfId="194"/>
-    <cellStyle name="标题 2 2" xfId="195"/>
-    <cellStyle name="Column_Title" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="187"/>
+    <cellStyle name="0.00%" xfId="188"/>
+    <cellStyle name="_二轧因素2012年10月分析(OA)" xfId="189"/>
+    <cellStyle name="_2007年KPI计划分解表(部门上报样表)" xfId="190"/>
+    <cellStyle name="_2012年1-9月成本网对标资料（中钢协返回）" xfId="191"/>
+    <cellStyle name="百分比 2 8" xfId="192"/>
+    <cellStyle name="_2007年预算编制表式" xfId="193"/>
+    <cellStyle name="标题 2 2" xfId="194"/>
+    <cellStyle name="Column_Title" xfId="195"/>
+    <cellStyle name="_2007综合经营计划表" xfId="196"/>
     <cellStyle name="_2008-7" xfId="197"/>
     <cellStyle name="_2008年存贷款内外部利率-供综合经营计划-20071227" xfId="198"/>
     <cellStyle name="_2008年中间业务计划（汇总）" xfId="199"/>
     <cellStyle name="_2008预算格式 V8" xfId="200"/>
-    <cellStyle name="_2009-1" xfId="201"/>
-    <cellStyle name="分级显示行_1_13区汇总" xfId="202"/>
-    <cellStyle name="_kcb1" xfId="203"/>
+    <cellStyle name="分级显示行_1_13区汇总" xfId="201"/>
+    <cellStyle name="_kcb1" xfId="202"/>
+    <cellStyle name="_2009-1" xfId="203"/>
     <cellStyle name="_20100326高清市院遂宁检察院1080P配置清单26日改" xfId="204"/>
     <cellStyle name="_2010年度六项费用计划（0310）" xfId="205"/>
     <cellStyle name="_2010年预算申报表(2010-02)v5二级行打印(拨备new)" xfId="206"/>
-    <cellStyle name="百分比 2" xfId="207"/>
-    <cellStyle name="_2011.12炼轧厂报表" xfId="208"/>
-    <cellStyle name="¶W³sµ²" xfId="209"/>
+    <cellStyle name="¶W³sµ²" xfId="207"/>
+    <cellStyle name="百分比 2" xfId="208"/>
+    <cellStyle name="_2011.12炼轧厂报表" xfId="209"/>
     <cellStyle name="_2011年1至9月份韶钢及周边五家钢材成材" xfId="210"/>
-    <cellStyle name="_2011年各行基数及计划增量调查表（部门上报汇总）" xfId="211"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="212"/>
-    <cellStyle name="_2012.05炼轧厂分析" xfId="213"/>
-    <cellStyle name="_Book1_1_2012各科成本分析" xfId="214"/>
-    <cellStyle name="Non défini" xfId="215"/>
-    <cellStyle name="_二轧厂（潜力分析）" xfId="216"/>
-    <cellStyle name="_2012.05气价还原" xfId="217"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="211"/>
+    <cellStyle name="_2011年各行基数及计划增量调查表（部门上报汇总）" xfId="212"/>
+    <cellStyle name="Non défini" xfId="213"/>
+    <cellStyle name="_二轧厂（潜力分析）" xfId="214"/>
+    <cellStyle name="_Book1_1_2012各科成本分析" xfId="215"/>
+    <cellStyle name="_2012.05炼轧厂分析" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="217"/>
     <cellStyle name="_2012年1-9月成本网对标资料（中钢协返回" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="219"/>
+    <cellStyle name="_2012.05气价还原" xfId="219"/>
     <cellStyle name="_2012.06炼轧厂报表" xfId="220"/>
-    <cellStyle name="_2012.07炼轧厂报表" xfId="221"/>
-    <cellStyle name="_二轧因素2013年01月分析" xfId="222"/>
+    <cellStyle name="_二轧因素2013年01月分析" xfId="221"/>
+    <cellStyle name="_2012.07炼轧厂报表" xfId="222"/>
     <cellStyle name="_2012.07炼轧厂分析" xfId="223"/>
     <cellStyle name="好_奖励补助测算7.23" xfId="224"/>
     <cellStyle name="_2012.08炼轧厂分析" xfId="225"/>
-    <cellStyle name="_2012.09炼轧厂分析" xfId="226"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="226"/>
     <cellStyle name="20% - 强调文字颜色 2 2_2018年火车局车误时费日记录表表" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="228"/>
+    <cellStyle name="_2012.09炼轧厂分析" xfId="228"/>
     <cellStyle name="_2012各科成本分析" xfId="229"/>
     <cellStyle name="_2012年各科降成本" xfId="230"/>
-    <cellStyle name="_2012年宽板厂主要预算指标" xfId="231"/>
+    <cellStyle name="ÆÕÍ¨_98-02" xfId="231"/>
     <cellStyle name="_利润表科目的基本对照表4（马雪泉）" xfId="232"/>
-    <cellStyle name="ÆÕÍ¨_98-02" xfId="233"/>
+    <cellStyle name="_2012年宽板厂主要预算指标" xfId="233"/>
     <cellStyle name="_2012年韶关钢铁预算（宝钢）对标" xfId="234"/>
-    <cellStyle name="_2012年主要预算指标分解表(补充)" xfId="235"/>
-    <cellStyle name="_激励费用表" xfId="236"/>
+    <cellStyle name="_激励费用表" xfId="235"/>
+    <cellStyle name="_2012年主要预算指标分解表(补充)" xfId="236"/>
     <cellStyle name="_2013.4炼轧厂报表(钢、棒一)" xfId="237"/>
     <cellStyle name="_2013高线预算表发生产厂" xfId="238"/>
     <cellStyle name="_2013年4月炼轧厂报表" xfId="239"/>
-    <cellStyle name="_2013年5月炼轧厂分析" xfId="240"/>
-    <cellStyle name="好_2009年一般性转移支付标准工资_~4190974" xfId="241"/>
-    <cellStyle name="Accent3 - 60%" xfId="242"/>
+    <cellStyle name="好_2009年一般性转移支付标准工资_~4190974" xfId="240"/>
+    <cellStyle name="Accent3 - 60%" xfId="241"/>
+    <cellStyle name="_2013年5月炼轧厂分析" xfId="242"/>
     <cellStyle name="差_云南省2008年中小学教职工情况（教育厅提供20090101加工整理）" xfId="243"/>
     <cellStyle name="_2013年炼轧厂预算报表(第二稿）" xfId="244"/>
     <cellStyle name="_2013年炼轧厂预算报表(第三稿）" xfId="245"/>
     <cellStyle name="_2013年炼轧厂预算报表(第四稿）" xfId="246"/>
     <cellStyle name="_2013年炼轧厂预算报表(第五稿）" xfId="247"/>
-    <cellStyle name="_2014本月对比月度预算（价格结构还原）" xfId="248"/>
-    <cellStyle name="60% - 强调文字颜色 6 3" xfId="249"/>
+    <cellStyle name="60% - 强调文字颜色 6 3" xfId="248"/>
+    <cellStyle name="_2014本月对比月度预算（价格结构还原）" xfId="249"/>
     <cellStyle name="_2015年制造预算" xfId="250"/>
     <cellStyle name="_2月预算对比1月实际" xfId="251"/>
     <cellStyle name="_Wuxi Bao-Mit_F.Inventory_复件 目标分解（炼钢）新" xfId="252"/>
-    <cellStyle name="_3月还原" xfId="253"/>
-    <cellStyle name="{Percent}" xfId="254"/>
+    <cellStyle name="{Percent}" xfId="253"/>
+    <cellStyle name="_3月还原" xfId="254"/>
     <cellStyle name="_8月各行减值计算" xfId="255"/>
-    <cellStyle name="常规 22" xfId="256"/>
-    <cellStyle name="常规 17" xfId="257"/>
-    <cellStyle name="_A300 with Breakdown" xfId="258"/>
-    <cellStyle name="_降成本（7）" xfId="259"/>
-    <cellStyle name="_A300 with Breakdown_N" xfId="260"/>
-    <cellStyle name="_Book1_1_到货完成情况分析（3）" xfId="261"/>
-    <cellStyle name="_通讯录888" xfId="262"/>
-    <cellStyle name="Comma  - Style6" xfId="263"/>
-    <cellStyle name="差_工作表 在 特钢产线成本计算模型（钢坯） 2_棒线材产品销售跟踪表" xfId="264"/>
-    <cellStyle name="_A300 with Breakdown_N_N" xfId="265"/>
-    <cellStyle name="好_2009年一般性转移支付标准工资_地方配套按人均增幅控制8.31（调整结案率后）xl" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="267"/>
+    <cellStyle name="_降成本（7）" xfId="256"/>
+    <cellStyle name="常规 22" xfId="257"/>
+    <cellStyle name="常规 17" xfId="258"/>
+    <cellStyle name="_A300 with Breakdown" xfId="259"/>
+    <cellStyle name="Comma  - Style6" xfId="260"/>
+    <cellStyle name="_通讯录888" xfId="261"/>
+    <cellStyle name="_Book1_1_到货完成情况分析（3）" xfId="262"/>
+    <cellStyle name="_A300 with Breakdown_N" xfId="263"/>
+    <cellStyle name="好_2009年一般性转移支付标准工资_地方配套按人均增幅控制8.31（调整结案率后）xl" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="265"/>
+    <cellStyle name="差_工作表 在 特钢产线成本计算模型（钢坯） 2_棒线材产品销售跟踪表" xfId="266"/>
+    <cellStyle name="_A300 with Breakdown_N_N" xfId="267"/>
     <cellStyle name="常规 2 7 2" xfId="268"/>
     <cellStyle name="_Book1" xfId="269"/>
     <cellStyle name="标题 5_棒线材产品销售跟踪表" xfId="270"/>
     <cellStyle name="_Book1_1" xfId="271"/>
     <cellStyle name="Calc Percent (2)" xfId="272"/>
-    <cellStyle name="常规 6_13年费用预算-五稿" xfId="273"/>
-    <cellStyle name="_Book1_1_2012年各科降成本" xfId="274"/>
-    <cellStyle name="_城北支行2008年KPI计划考核上报样表" xfId="275"/>
-    <cellStyle name="Ç§Î»[0]_pldt" xfId="276"/>
-    <cellStyle name="_Book1_1_Book1" xfId="277"/>
+    <cellStyle name="Ç§Î»[0]_pldt" xfId="273"/>
+    <cellStyle name="_城北支行2008年KPI计划考核上报样表" xfId="274"/>
+    <cellStyle name="常规 6_13年费用预算-五稿" xfId="275"/>
+    <cellStyle name="_Book1_1_2012年各科降成本" xfId="276"/>
+    <cellStyle name="_指标分解" xfId="277"/>
     <cellStyle name="_二轧2013年04月份分品种成本报表" xfId="278"/>
-    <cellStyle name="_指标分解" xfId="279"/>
+    <cellStyle name="_Book1_1_Book1" xfId="279"/>
     <cellStyle name="_Book1_1_成本分析（6）" xfId="280"/>
     <cellStyle name="_Book1_1_降成本（7）" xfId="281"/>
-    <cellStyle name="_Book1_2" xfId="282"/>
-    <cellStyle name="_F-Lead" xfId="283"/>
+    <cellStyle name="常规 3 2 3" xfId="282"/>
+    <cellStyle name="Accent2 - 20%" xfId="283"/>
     <cellStyle name="_成本分析（6）" xfId="284"/>
     <cellStyle name="_计划表2－3：产品业务计划表" xfId="285"/>
-    <cellStyle name="常规 3 2 3" xfId="286"/>
-    <cellStyle name="Accent2 - 20%" xfId="287"/>
-    <cellStyle name="常规 7_13年费用预算-五稿" xfId="288"/>
-    <cellStyle name="_Book1_2_2012年各科降成本" xfId="289"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="290"/>
-    <cellStyle name="_watch smart N" xfId="291"/>
-    <cellStyle name="_Book1_2_Book1" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="293"/>
+    <cellStyle name="_Book1_2" xfId="286"/>
+    <cellStyle name="_F-Lead" xfId="287"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="288"/>
+    <cellStyle name="常规 7_13年费用预算-五稿" xfId="289"/>
+    <cellStyle name="_Book1_2_2012年各科降成本" xfId="290"/>
+    <cellStyle name="_Book1_2_Book1" xfId="291"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="292"/>
+    <cellStyle name="_watch smart N" xfId="293"/>
     <cellStyle name="_Book1_2_成本分析（6）" xfId="294"/>
-    <cellStyle name="_Book1_2_到货完成情况分析（3）" xfId="295"/>
+    <cellStyle name="60% - 强调文字颜色 4 2_棒线材产品销售跟踪表" xfId="295"/>
     <cellStyle name="_ET_STYLE_NoName_00__Book1" xfId="296"/>
-    <cellStyle name="60% - 强调文字颜色 4 2_棒线材产品销售跟踪表" xfId="297"/>
-    <cellStyle name="_Book1_2012各科成本分析" xfId="298"/>
+    <cellStyle name="_Book1_2_到货完成情况分析（3）" xfId="297"/>
+    <cellStyle name="_明细还原" xfId="298"/>
     <cellStyle name="_二轧因素2012年08月分析(OA)" xfId="299"/>
-    <cellStyle name="_明细还原" xfId="300"/>
+    <cellStyle name="_Book1_2012各科成本分析" xfId="300"/>
     <cellStyle name="_Book1_2012年各科降成本" xfId="301"/>
     <cellStyle name="_Book1_3" xfId="302"/>
     <cellStyle name="钎霖_4岿角利" xfId="303"/>
     <cellStyle name="_Book1_3_成本分析（6）" xfId="304"/>
-    <cellStyle name="_Book1_3_到货完成情况分析（3）" xfId="305"/>
-    <cellStyle name="_钞币安防汇总" xfId="306"/>
+    <cellStyle name="_钞币安防汇总" xfId="305"/>
+    <cellStyle name="_Book1_3_到货完成情况分析（3）" xfId="306"/>
     <cellStyle name="_Book1_Book1" xfId="307"/>
-    <cellStyle name="_Book1_成本分析（6）" xfId="308"/>
-    <cellStyle name="_worksheet" xfId="309"/>
+    <cellStyle name="_worksheet" xfId="308"/>
+    <cellStyle name="_Book1_成本分析（6）" xfId="309"/>
     <cellStyle name="_Book1_到货完成情况分析（3）" xfId="310"/>
     <cellStyle name="_Book1_降成本（7）" xfId="311"/>
     <cellStyle name="_Book4" xfId="312"/>
     <cellStyle name="_CCB.HO.New TB template.CCB PRC IAS Sorting.040223 trial run" xfId="313"/>
-    <cellStyle name="差_复件 2015年降本增效项目分解表（0130）_设备管理部" xfId="314"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="315"/>
-    <cellStyle name="_worksheet_Notes Payable PBC_N" xfId="316"/>
-    <cellStyle name="Ç§Î»·Ö¸ô_0012A3" xfId="317"/>
+    <cellStyle name="Ç§Î»·Ö¸ô_0012A3" xfId="314"/>
+    <cellStyle name="差_复件 2015年降本增效项目分解表（0130）_设备管理部" xfId="315"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="316"/>
+    <cellStyle name="_worksheet_Notes Payable PBC_N" xfId="317"/>
     <cellStyle name="_ET_STYLE_NoName_00__2016年预测降本" xfId="318"/>
-    <cellStyle name="_ET_STYLE_NoName_00__Book1_1" xfId="319"/>
-    <cellStyle name="_存货跌价准备冲回" xfId="320"/>
-    <cellStyle name="_ET_STYLE_NoName_00__Book1_2" xfId="321"/>
-    <cellStyle name="Accent5 - 20%" xfId="322"/>
+    <cellStyle name="_存货跌价准备冲回" xfId="319"/>
+    <cellStyle name="_ET_STYLE_NoName_00__Book1_1" xfId="320"/>
+    <cellStyle name="Accent5 - 20%" xfId="321"/>
+    <cellStyle name="_ET_STYLE_NoName_00__Book1_2" xfId="322"/>
     <cellStyle name="_ET_STYLE_NoName_00__承兑欠款（10）" xfId="323"/>
     <cellStyle name="千位分隔 4" xfId="324"/>
     <cellStyle name="标题 4 3" xfId="325"/>
     <cellStyle name="_ET_STYLE_NoName_00__宽板厂2014年01月分析" xfId="326"/>
     <cellStyle name="_ET_STYLE_NoName_00__热电14年本月降本增效分析" xfId="327"/>
-    <cellStyle name="_F-Lead_复件 目标分解（炼钢）新" xfId="328"/>
-    <cellStyle name="_炼轧厂高线工序汇总分析2014年1月" xfId="329"/>
+    <cellStyle name="_炼轧厂高线工序汇总分析2014年1月" xfId="328"/>
+    <cellStyle name="_F-Lead_复件 目标分解（炼钢）新" xfId="329"/>
     <cellStyle name="_KPI指标体系表(定)" xfId="330"/>
-    <cellStyle name="常规 70" xfId="331"/>
-    <cellStyle name="常规 65" xfId="332"/>
-    <cellStyle name="_N - Payables" xfId="333"/>
-    <cellStyle name="³£¹æ_0012A3" xfId="334"/>
-    <cellStyle name="40% - Accent3" xfId="335"/>
+    <cellStyle name="40% - Accent3" xfId="331"/>
+    <cellStyle name="³£¹æ_0012A3" xfId="332"/>
+    <cellStyle name="常规 70" xfId="333"/>
+    <cellStyle name="常规 65" xfId="334"/>
+    <cellStyle name="_N - Payables" xfId="335"/>
     <cellStyle name="_N - Payables_N" xfId="336"/>
     <cellStyle name="_N100" xfId="337"/>
-    <cellStyle name="_N100_1511月铁钢材成本报表" xfId="338"/>
-    <cellStyle name="Calc Currency (2)" xfId="339"/>
+    <cellStyle name="Calc Currency (2)" xfId="338"/>
+    <cellStyle name="_N100_1511月铁钢材成本报表" xfId="339"/>
     <cellStyle name="_N100_复件 目标分解（炼钢）新" xfId="340"/>
     <cellStyle name="_NN" xfId="341"/>
     <cellStyle name="Bad" xfId="342"/>
-    <cellStyle name="_Notes Payable PBC" xfId="343"/>
-    <cellStyle name="Accent5_公安安全支出补充表5.14" xfId="344"/>
-    <cellStyle name="_Notes Payable PBC_N" xfId="345"/>
-    <cellStyle name="Accent6 - 20%" xfId="346"/>
+    <cellStyle name="Accent5_公安安全支出补充表5.14" xfId="343"/>
+    <cellStyle name="_Notes Payable PBC" xfId="344"/>
+    <cellStyle name="Accent6 - 20%" xfId="345"/>
+    <cellStyle name="_Notes Payable PBC_N" xfId="346"/>
     <cellStyle name="_P" xfId="347"/>
-    <cellStyle name="_P_N" xfId="348"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="349"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="348"/>
+    <cellStyle name="_P_N" xfId="349"/>
     <cellStyle name="_P_N_N" xfId="350"/>
     <cellStyle name="好_2009年一般性转移支付标准工资_不用软件计算9.1不考虑经费管理评价xl" xfId="351"/>
     <cellStyle name="差_Book1_2" xfId="352"/>
@@ -6298,112 +6278,112 @@
     <cellStyle name="_Wuxi Bao-Mit_F.Inventory_1511月铁钢材成本报表" xfId="358"/>
     <cellStyle name="_房租费计划" xfId="359"/>
     <cellStyle name="_单户" xfId="360"/>
-    <cellStyle name="_到货完成情况分析（3）" xfId="361"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="362"/>
-    <cellStyle name="_定稿表" xfId="363"/>
-    <cellStyle name="_高线汇总分析11" xfId="364"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="361"/>
+    <cellStyle name="_到货完成情况分析（3）" xfId="362"/>
+    <cellStyle name="_高线汇总分析11" xfId="363"/>
+    <cellStyle name="_定稿表" xfId="364"/>
     <cellStyle name="_吨钢消耗" xfId="365"/>
     <cellStyle name="_二级行主指表2009" xfId="366"/>
-    <cellStyle name="_二轧厂2013年第二稿预算分析" xfId="367"/>
-    <cellStyle name="常规 2 4" xfId="368"/>
-    <cellStyle name="{Thousand [0]}" xfId="369"/>
-    <cellStyle name="per.style" xfId="370"/>
-    <cellStyle name="{Month}" xfId="371"/>
-    <cellStyle name="60% - Accent4" xfId="372"/>
-    <cellStyle name="普通_ 白土" xfId="373"/>
-    <cellStyle name="_二轧厂2013年第三稿预算分析" xfId="374"/>
-    <cellStyle name="Comma,2" xfId="375"/>
+    <cellStyle name="per.style" xfId="367"/>
+    <cellStyle name="{Month}" xfId="368"/>
+    <cellStyle name="60% - Accent4" xfId="369"/>
+    <cellStyle name="常规 2 4" xfId="370"/>
+    <cellStyle name="{Thousand [0]}" xfId="371"/>
+    <cellStyle name="_二轧厂2013年第二稿预算分析" xfId="372"/>
+    <cellStyle name="Comma,2" xfId="373"/>
+    <cellStyle name="普通_ 白土" xfId="374"/>
+    <cellStyle name="_二轧厂2013年第三稿预算分析" xfId="375"/>
     <cellStyle name="_二轧线2013年第四稿预算分析" xfId="376"/>
     <cellStyle name="_二轧因素2012年07月分析" xfId="377"/>
     <cellStyle name="_二轧因素2012年12月分析" xfId="378"/>
-    <cellStyle name="_二轧因素2012年09月分析" xfId="379"/>
-    <cellStyle name="警告文本 3" xfId="380"/>
-    <cellStyle name="40% - Accent6" xfId="381"/>
+    <cellStyle name="警告文本 3" xfId="379"/>
+    <cellStyle name="40% - Accent6" xfId="380"/>
+    <cellStyle name="_二轧因素2012年09月分析" xfId="381"/>
     <cellStyle name="_二轧因素2012年111月分析" xfId="382"/>
-    <cellStyle name="_二轧因素2012年111月分析(OA)" xfId="383"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="383"/>
     <cellStyle name="弇[0]_laroux" xfId="384"/>
     <cellStyle name="Millares [0]_10 Empresas " xfId="385"/>
     <cellStyle name="_方案附件13：2007综合经营计划表（云南）" xfId="386"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="387"/>
+    <cellStyle name="_二轧因素2012年111月分析(OA)" xfId="387"/>
     <cellStyle name="_费用" xfId="388"/>
-    <cellStyle name="_分行操作风险测算" xfId="389"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="390"/>
-    <cellStyle name="20% - Accent1" xfId="391"/>
-    <cellStyle name="Accent1 - 20%" xfId="392"/>
-    <cellStyle name="_分解表（调整）" xfId="393"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="394"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="389"/>
+    <cellStyle name="20% - Accent1" xfId="390"/>
+    <cellStyle name="Accent1 - 20%" xfId="391"/>
+    <cellStyle name="_分行操作风险测算" xfId="392"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="393"/>
+    <cellStyle name="_分解表（调整）" xfId="394"/>
     <cellStyle name="_附件" xfId="395"/>
-    <cellStyle name="强调 3" xfId="396"/>
-    <cellStyle name="_附件一 分行责任中心预算管理相关报表071212" xfId="397"/>
-    <cellStyle name="60% - Accent2" xfId="398"/>
+    <cellStyle name="60% - Accent2" xfId="396"/>
+    <cellStyle name="强调 3" xfId="397"/>
+    <cellStyle name="_附件一 分行责任中心预算管理相关报表071212" xfId="398"/>
     <cellStyle name="_复件 二轧线2013年第五稿预算分析" xfId="399"/>
     <cellStyle name="_副本(附件5)2007年预算编制表式" xfId="400"/>
     <cellStyle name="_副本炼钢物料收得率" xfId="401"/>
     <cellStyle name="_高线汇总分析12" xfId="402"/>
     <cellStyle name="差_三钢厂2012年7月份财务报表" xfId="403"/>
     <cellStyle name="_高线汇总分析13年1月" xfId="404"/>
-    <cellStyle name="_公司部1210" xfId="405"/>
-    <cellStyle name="_新一钢7月预算" xfId="406"/>
+    <cellStyle name="_新一钢7月预算" xfId="405"/>
+    <cellStyle name="_公司部1210" xfId="406"/>
     <cellStyle name="差_第五部分(才淼、饶永宏）" xfId="407"/>
     <cellStyle name="_共享（指标分解）" xfId="408"/>
-    <cellStyle name="_合并现金流量200703" xfId="409"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="410"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="409"/>
+    <cellStyle name="_合并现金流量200703" xfId="410"/>
     <cellStyle name="_计划表式口径1011（产品计划编制表）" xfId="411"/>
-    <cellStyle name="_减值测算相关报表（反馈计财部1212）" xfId="412"/>
-    <cellStyle name="20% - Accent5" xfId="413"/>
-    <cellStyle name="_建会〔2007〕209号附件：核算码与COA段值映射关系表" xfId="414"/>
-    <cellStyle name="60% - 强调文字颜色 3 3" xfId="415"/>
+    <cellStyle name="20% - Accent5" xfId="412"/>
+    <cellStyle name="_减值测算相关报表（反馈计财部1212）" xfId="413"/>
+    <cellStyle name="60% - 强调文字颜色 3 3" xfId="414"/>
+    <cellStyle name="_建会〔2007〕209号附件：核算码与COA段值映射关系表" xfId="415"/>
     <cellStyle name="_经济资本系数20061129" xfId="416"/>
     <cellStyle name="_guyan" xfId="417"/>
     <cellStyle name="_宽板厂2012年7月分析" xfId="418"/>
     <cellStyle name="_宽板厂2013年3月分析" xfId="419"/>
-    <cellStyle name="_宽板厂2013年第二稿预算" xfId="420"/>
-    <cellStyle name="60% - 强调文字颜色 5 3" xfId="421"/>
+    <cellStyle name="60% - 强调文字颜色 5 3" xfId="420"/>
+    <cellStyle name="_宽板厂2013年第二稿预算" xfId="421"/>
     <cellStyle name="_宽板厂2013年第三稿预算" xfId="422"/>
-    <cellStyle name="_宽板厂2013年第四稿预算" xfId="423"/>
-    <cellStyle name="20% - Accent6" xfId="424"/>
-    <cellStyle name="常规 9 2" xfId="425"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="426"/>
-    <cellStyle name="_宽板厂2014年01月分析" xfId="427"/>
-    <cellStyle name="Accent1" xfId="428"/>
-    <cellStyle name="_炼钢部11" xfId="429"/>
+    <cellStyle name="20% - Accent6" xfId="423"/>
+    <cellStyle name="_宽板厂2013年第四稿预算" xfId="424"/>
+    <cellStyle name="_宽板厂2014年01月分析" xfId="425"/>
+    <cellStyle name="Accent1" xfId="426"/>
+    <cellStyle name="常规 9 2" xfId="427"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="428"/>
+    <cellStyle name="Accent1 - 60%" xfId="429"/>
     <cellStyle name="_新一钢13年1月预算对比12月分析" xfId="430"/>
-    <cellStyle name="Accent1 - 60%" xfId="431"/>
+    <cellStyle name="_炼钢部11" xfId="431"/>
     <cellStyle name="_炼钢部2" xfId="432"/>
-    <cellStyle name="_炼钢部3" xfId="433"/>
+    <cellStyle name="Ç§·ÖÎ»_98-02" xfId="433"/>
     <cellStyle name="_主要技术经济指标行业对比201206累计7.31汤" xfId="434"/>
-    <cellStyle name="Ç§·ÖÎ»_98-02" xfId="435"/>
+    <cellStyle name="_炼钢部3" xfId="435"/>
     <cellStyle name="p/n" xfId="436"/>
     <cellStyle name="_炼钢部4" xfId="437"/>
     <cellStyle name="_炼钢部4（征求意见）" xfId="438"/>
-    <cellStyle name="常规 4 2_经济资本报表2010" xfId="439"/>
-    <cellStyle name="_炼钢部5" xfId="440"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="441"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="439"/>
+    <cellStyle name="常规 4 2_经济资本报表2010" xfId="440"/>
+    <cellStyle name="_炼钢部5" xfId="441"/>
     <cellStyle name="_炼铁厂01月财务分析" xfId="442"/>
     <cellStyle name="_年度预算4月度考核" xfId="443"/>
     <cellStyle name="_年预算第三稿炼轧（钢）" xfId="444"/>
     <cellStyle name="_坯预算分品种分项目(结构还原）" xfId="445"/>
-    <cellStyle name="_取数" xfId="446"/>
-    <cellStyle name="_铁前每月目标执行进度" xfId="447"/>
-    <cellStyle name="Ç§Î»_pldt" xfId="448"/>
-    <cellStyle name="常规 12" xfId="449"/>
-    <cellStyle name="_人力费用测算表" xfId="450"/>
-    <cellStyle name="Accent5 - 60%" xfId="451"/>
+    <cellStyle name="Ç§Î»_pldt" xfId="446"/>
+    <cellStyle name="_取数" xfId="447"/>
+    <cellStyle name="_铁前每月目标执行进度" xfId="448"/>
+    <cellStyle name="Accent5 - 60%" xfId="449"/>
+    <cellStyle name="常规 12" xfId="450"/>
+    <cellStyle name="_人力费用测算表" xfId="451"/>
     <cellStyle name="_三钢厂2011年10月份财务报表" xfId="452"/>
-    <cellStyle name="_三钢厂2011年11月份财务报表" xfId="453"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="454"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="453"/>
+    <cellStyle name="_三钢厂2011年11月份财务报表" xfId="454"/>
     <cellStyle name="_三钢厂2012年11月份财务报表" xfId="455"/>
-    <cellStyle name="_三钢厂2012年1月份财务报表" xfId="456"/>
-    <cellStyle name="_综合考评2007" xfId="457"/>
-    <cellStyle name="差_义务教育阶段教职工人数（教育厅提供最终）" xfId="458"/>
-    <cellStyle name="_三钢厂2012年3月份财务报表" xfId="459"/>
-    <cellStyle name="Comma[0]" xfId="460"/>
+    <cellStyle name="_综合考评2007" xfId="456"/>
+    <cellStyle name="_三钢厂2012年1月份财务报表" xfId="457"/>
+    <cellStyle name="Comma[0]" xfId="458"/>
+    <cellStyle name="差_义务教育阶段教职工人数（教育厅提供最终）" xfId="459"/>
+    <cellStyle name="_三钢厂2012年3月份财务报表" xfId="460"/>
     <cellStyle name="_三钢厂2014年1月份财务报表" xfId="461"/>
     <cellStyle name="20% - 强调文字颜色 1 2_2018年火车局车误时费日记录表表" xfId="462"/>
     <cellStyle name="_条线计划汇总" xfId="463"/>
-    <cellStyle name="_网络改造通信费用测算表（20090820）" xfId="464"/>
-    <cellStyle name="差_2007年检察院案件数" xfId="465"/>
-    <cellStyle name="Accent3" xfId="466"/>
+    <cellStyle name="差_2007年检察院案件数" xfId="464"/>
+    <cellStyle name="Accent3" xfId="465"/>
+    <cellStyle name="_网络改造通信费用测算表（20090820）" xfId="466"/>
     <cellStyle name="_下半年吨钢备件机物料预算及消耗表" xfId="467"/>
     <cellStyle name="_新一钢12年4月预算" xfId="468"/>
     <cellStyle name="_新一钢12月预算" xfId="469"/>
@@ -6437,58 +6417,58 @@
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="497"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="498"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="499"/>
-    <cellStyle name="20% - 强调文字颜色 3 2_2018年火车局车误时费日记录表表" xfId="500"/>
-    <cellStyle name="好_下半年禁毒办案经费分配2544.3万元" xfId="501"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="502"/>
+    <cellStyle name="好_下半年禁毒办案经费分配2544.3万元" xfId="500"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="501"/>
+    <cellStyle name="20% - 强调文字颜色 3 2_2018年火车局车误时费日记录表表" xfId="502"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="503"/>
     <cellStyle name="20% - 强调文字颜色 4 2_2018年火车局车误时费日记录表表" xfId="504"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="505"/>
-    <cellStyle name="常规 4" xfId="506"/>
-    <cellStyle name="Accent6_公安安全支出补充表5.14" xfId="507"/>
-    <cellStyle name="鱔 [0]_95" xfId="508"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="509"/>
-    <cellStyle name="콤마_BOILER-CO1" xfId="510"/>
-    <cellStyle name="60% - 强调文字颜色 2 2_棒线材产品销售跟踪表" xfId="511"/>
+    <cellStyle name="常规 4" xfId="505"/>
+    <cellStyle name="Accent6_公安安全支出补充表5.14" xfId="506"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="507"/>
+    <cellStyle name="콤마_BOILER-CO1" xfId="508"/>
+    <cellStyle name="60% - 强调文字颜色 2 2_棒线材产品销售跟踪表" xfId="509"/>
+    <cellStyle name="鱔 [0]_95" xfId="510"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="511"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="512"/>
     <cellStyle name="60% - 强调文字颜色 3 2_棒线材产品销售跟踪表" xfId="513"/>
     <cellStyle name="20% - 强调文字颜色 5 2_2018年火车局车误时费日记录表表" xfId="514"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="515"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="516"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="517"/>
-    <cellStyle name="差_业务工作量指标" xfId="518"/>
+    <cellStyle name="差_业务工作量指标" xfId="517"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="518"/>
     <cellStyle name="255" xfId="519"/>
     <cellStyle name="40% - Accent1" xfId="520"/>
-    <cellStyle name="40% - Accent4" xfId="521"/>
-    <cellStyle name="Normal - Style1" xfId="522"/>
-    <cellStyle name="Black" xfId="523"/>
+    <cellStyle name="Normal - Style1" xfId="521"/>
+    <cellStyle name="40% - Accent4" xfId="522"/>
+    <cellStyle name="常规 72" xfId="523"/>
     <cellStyle name="常规 67" xfId="524"/>
-    <cellStyle name="常规 72" xfId="525"/>
+    <cellStyle name="Black" xfId="525"/>
     <cellStyle name="add" xfId="526"/>
-    <cellStyle name="40% - Accent5" xfId="527"/>
-    <cellStyle name="警告文本 2" xfId="528"/>
+    <cellStyle name="警告文本 2" xfId="527"/>
+    <cellStyle name="40% - Accent5" xfId="528"/>
     <cellStyle name="Calc Units (1)" xfId="529"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="530"/>
-    <cellStyle name="好_关联交易格式20130710(上半年）" xfId="531"/>
+    <cellStyle name="好_关联交易格式20130710(上半年）" xfId="530"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="531"/>
     <cellStyle name="40% - 强调文字颜色 1 2_2018年火车局车误时费日记录表表" xfId="532"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="533"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="534"/>
-    <cellStyle name="60% - Accent6" xfId="535"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="536"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="535"/>
+    <cellStyle name="60% - Accent6" xfId="536"/>
     <cellStyle name="40% - 强调文字颜色 2 2_2018年火车局车误时费日记录表表" xfId="537"/>
-    <cellStyle name="40% - 强调文字颜色 6 2_2018年火车局车误时费日记录表表" xfId="538"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="539"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="538"/>
+    <cellStyle name="40% - 强调文字颜色 6 2_2018年火车局车误时费日记录表表" xfId="539"/>
     <cellStyle name="40% - 强调文字颜色 3 2_2018年火车局车误时费日记录表表" xfId="540"/>
-    <cellStyle name="Comma,0" xfId="541"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="542"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="541"/>
+    <cellStyle name="Comma,0" xfId="542"/>
     <cellStyle name="40% - 强调文字颜色 4 2_2018年火车局车误时费日记录表表" xfId="543"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="544"/>
-    <cellStyle name="好_2006年分析表" xfId="545"/>
+    <cellStyle name="好_2006年分析表" xfId="544"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="545"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="546"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="547"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="548"/>
     <cellStyle name="60% - Accent3" xfId="549"/>
-    <cellStyle name="60% - Accent5" xfId="550"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="551"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="550"/>
+    <cellStyle name="60% - Accent5" xfId="551"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="552"/>
     <cellStyle name="60% - 强调文字颜色 1 2_棒线材产品销售跟踪表" xfId="553"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="554"/>
@@ -6497,21 +6477,21 @@
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="557"/>
     <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="558"/>
     <cellStyle name="Accent6 - 60%" xfId="559"/>
-    <cellStyle name="60% - 强调文字颜色 6 2_棒线材产品销售跟踪表" xfId="560"/>
-    <cellStyle name="SAPBEXaggData" xfId="561"/>
+    <cellStyle name="SAPBEXaggData" xfId="560"/>
+    <cellStyle name="60% - 强调文字颜色 6 2_棒线材产品销售跟踪表" xfId="561"/>
     <cellStyle name="6mal" xfId="562"/>
     <cellStyle name="Comma[2]" xfId="563"/>
     <cellStyle name="99/12/31" xfId="564"/>
-    <cellStyle name="Accent1 - 40%" xfId="565"/>
-    <cellStyle name="差_2006年基础数据" xfId="566"/>
-    <cellStyle name="Accent2" xfId="567"/>
-    <cellStyle name="Moneda [0]_10 Empresas " xfId="568"/>
-    <cellStyle name="Accent2_公安安全支出补充表5.14" xfId="569"/>
+    <cellStyle name="差_2006年基础数据" xfId="565"/>
+    <cellStyle name="Accent1 - 40%" xfId="566"/>
+    <cellStyle name="Moneda [0]_10 Empresas " xfId="567"/>
+    <cellStyle name="Accent2" xfId="568"/>
+    <cellStyle name="常规 112" xfId="569"/>
     <cellStyle name="常规 107" xfId="570"/>
-    <cellStyle name="常规 112" xfId="571"/>
+    <cellStyle name="Accent2_公安安全支出补充表5.14" xfId="571"/>
     <cellStyle name="Comma  - Style2" xfId="572"/>
-    <cellStyle name="Accent3 - 20%" xfId="573"/>
-    <cellStyle name=" [0.00]_guyan" xfId="574"/>
+    <cellStyle name=" [0.00]_guyan" xfId="573"/>
+    <cellStyle name="Accent3 - 20%" xfId="574"/>
     <cellStyle name="Accent3 - 40%" xfId="575"/>
     <cellStyle name="Accent3_公安安全支出补充表5.14" xfId="576"/>
     <cellStyle name="Border" xfId="577"/>
@@ -6523,13 +6503,13 @@
     <cellStyle name="Accent6" xfId="583"/>
     <cellStyle name="Accent6 - 40%" xfId="584"/>
     <cellStyle name="ÀH«áªº¶W³sµ²" xfId="585"/>
-    <cellStyle name="C:\Data\MS\Excel" xfId="586"/>
-    <cellStyle name="KPMG Normal" xfId="587"/>
+    <cellStyle name="KPMG Normal" xfId="586"/>
+    <cellStyle name="C:\Data\MS\Excel" xfId="587"/>
     <cellStyle name="Ç§·ÖÎ»[0]_98-02" xfId="588"/>
     <cellStyle name="Ç§Î»·Ö¸ô[0]_0012A3" xfId="589"/>
     <cellStyle name="Calc Currency (0)" xfId="590"/>
-    <cellStyle name="Calc Currency (0)_2012年1-9月成本网对标资料（中钢协返回" xfId="591"/>
-    <cellStyle name="好_201312二轧分品种表" xfId="592"/>
+    <cellStyle name="好_201312二轧分品种表" xfId="591"/>
+    <cellStyle name="Calc Currency (0)_2012年1-9月成本网对标资料（中钢协返回" xfId="592"/>
     <cellStyle name="Calc Units (2)" xfId="593"/>
     <cellStyle name="Calculation" xfId="594"/>
     <cellStyle name="Check Cell" xfId="595"/>
@@ -6539,21 +6519,21 @@
     <cellStyle name="Comma  - Style5" xfId="599"/>
     <cellStyle name="Comma [0]" xfId="600"/>
     <cellStyle name="Comma [00]" xfId="601"/>
-    <cellStyle name="comma zerodec" xfId="602"/>
-    <cellStyle name="통화_BOILER-CO1" xfId="603"/>
-    <cellStyle name="Comma,1" xfId="604"/>
-    <cellStyle name="PrePop Units (0)" xfId="605"/>
+    <cellStyle name="통화_BOILER-CO1" xfId="602"/>
+    <cellStyle name="comma zerodec" xfId="603"/>
+    <cellStyle name="PrePop Units (0)" xfId="604"/>
+    <cellStyle name="Comma,1" xfId="605"/>
     <cellStyle name="Comma_!!!GO" xfId="606"/>
     <cellStyle name="Comma0" xfId="607"/>
     <cellStyle name="comma-d" xfId="608"/>
-    <cellStyle name="Copied" xfId="609"/>
-    <cellStyle name="差_2009年一般性转移支付标准工资_~5676413" xfId="610"/>
+    <cellStyle name="差_2009年一般性转移支付标准工资_~5676413" xfId="609"/>
+    <cellStyle name="Copied" xfId="610"/>
     <cellStyle name="COST1" xfId="611"/>
     <cellStyle name="Currency$[2]" xfId="612"/>
     <cellStyle name="Currency,2" xfId="613"/>
-    <cellStyle name="Currency\[0]" xfId="614"/>
+    <cellStyle name="归盒啦_95" xfId="614"/>
     <cellStyle name="Linked Cell" xfId="615"/>
-    <cellStyle name="归盒啦_95" xfId="616"/>
+    <cellStyle name="Currency\[0]" xfId="616"/>
     <cellStyle name="Currency_!!!GO" xfId="617"/>
     <cellStyle name="Currency0" xfId="618"/>
     <cellStyle name="Currency1" xfId="619"/>
@@ -6562,38 +6542,38 @@
     <cellStyle name="Date Short" xfId="622"/>
     <cellStyle name="Date_2012年1-9月成本网对标资料（中钢协返回" xfId="623"/>
     <cellStyle name="Dezimal [0]_laroux" xfId="624"/>
-    <cellStyle name="Dezimal_BS Variances Analysis FY20001" xfId="625"/>
+    <cellStyle name="好_00省级(打印)" xfId="625"/>
     <cellStyle name="标题1" xfId="626"/>
-    <cellStyle name="好_00省级(打印)" xfId="627"/>
+    <cellStyle name="Dezimal_BS Variances Analysis FY20001" xfId="627"/>
     <cellStyle name="Dollar (zero dec)" xfId="628"/>
     <cellStyle name="E&amp;Y House" xfId="629"/>
     <cellStyle name="Enter Currency (0)" xfId="630"/>
-    <cellStyle name="Enter Currency (2)" xfId="631"/>
-    <cellStyle name="Mon　aire [0]_AR1194HP数" xfId="632"/>
+    <cellStyle name="Mon　aire [0]_AR1194HP数" xfId="631"/>
+    <cellStyle name="Enter Currency (2)" xfId="632"/>
     <cellStyle name="Enter Units (0)" xfId="633"/>
     <cellStyle name="Enter Units (1)" xfId="634"/>
     <cellStyle name="Enter Units (2)" xfId="635"/>
     <cellStyle name="Entered" xfId="636"/>
-    <cellStyle name="entry box" xfId="637"/>
-    <cellStyle name="好 2" xfId="638"/>
+    <cellStyle name="好 2" xfId="637"/>
+    <cellStyle name="entry box" xfId="638"/>
     <cellStyle name="Euro" xfId="639"/>
     <cellStyle name="EY House" xfId="640"/>
     <cellStyle name="Fixed" xfId="641"/>
-    <cellStyle name="Good" xfId="642"/>
-    <cellStyle name="常规 10" xfId="643"/>
-    <cellStyle name="Grey" xfId="644"/>
+    <cellStyle name="常规 10" xfId="642"/>
+    <cellStyle name="Good" xfId="643"/>
+    <cellStyle name="常规 96" xfId="644"/>
     <cellStyle name="差_物流部" xfId="645"/>
-    <cellStyle name="常规 96" xfId="646"/>
-    <cellStyle name="Header1" xfId="647"/>
-    <cellStyle name="强调文字颜色 5 2 2" xfId="648"/>
+    <cellStyle name="Grey" xfId="646"/>
+    <cellStyle name="强调文字颜色 5 2 2" xfId="647"/>
+    <cellStyle name="Header1" xfId="648"/>
     <cellStyle name="Header2" xfId="649"/>
     <cellStyle name="Heading" xfId="650"/>
     <cellStyle name="Heading 1" xfId="651"/>
     <cellStyle name="Heading 2" xfId="652"/>
     <cellStyle name="Heading 3" xfId="653"/>
     <cellStyle name="Heading 4" xfId="654"/>
-    <cellStyle name="HEADING1" xfId="655"/>
-    <cellStyle name="好_制造管理部" xfId="656"/>
+    <cellStyle name="好_制造管理部" xfId="655"/>
+    <cellStyle name="HEADING1" xfId="656"/>
     <cellStyle name="HEADING2" xfId="657"/>
     <cellStyle name="HEADINGS" xfId="658"/>
     <cellStyle name="HEADINGSTOP" xfId="659"/>
@@ -6607,8 +6587,8 @@
     <cellStyle name="KPMG Heading 1" xfId="667"/>
     <cellStyle name="KPMG Heading 2" xfId="668"/>
     <cellStyle name="KPMG Heading 3" xfId="669"/>
-    <cellStyle name="KPMG Heading 4" xfId="670"/>
-    <cellStyle name="好_奖励补助测算7.25 (version 1) (version 1)" xfId="671"/>
+    <cellStyle name="好_奖励补助测算7.25 (version 1) (version 1)" xfId="670"/>
+    <cellStyle name="KPMG Heading 4" xfId="671"/>
     <cellStyle name="KPMG Normal Text" xfId="672"/>
     <cellStyle name="Link Currency (0)" xfId="673"/>
     <cellStyle name="Link Currency (2)" xfId="674"/>
@@ -6634,8 +6614,8 @@
     <cellStyle name="New Times Roman" xfId="694"/>
     <cellStyle name="no dec" xfId="695"/>
     <cellStyle name="Norma,_laroux_4_营业在建 (2)_E21" xfId="696"/>
-    <cellStyle name="Normal_!!!GO" xfId="697"/>
-    <cellStyle name="好_历年教师人数" xfId="698"/>
+    <cellStyle name="好_历年教师人数" xfId="697"/>
+    <cellStyle name="Normal_!!!GO" xfId="698"/>
     <cellStyle name="Normalny_Arkusz1" xfId="699"/>
     <cellStyle name="NormalX" xfId="700"/>
     <cellStyle name="Note" xfId="701"/>
@@ -6646,24 +6626,24 @@
     <cellStyle name="Percent [0%]" xfId="706"/>
     <cellStyle name="Percent [0.00%]" xfId="707"/>
     <cellStyle name="Percent [0]" xfId="708"/>
-    <cellStyle name="Percent [00]" xfId="709"/>
-    <cellStyle name="标题 6" xfId="710"/>
+    <cellStyle name="标题 6" xfId="709"/>
+    <cellStyle name="Percent [00]" xfId="710"/>
     <cellStyle name="Percent [2]" xfId="711"/>
-    <cellStyle name="Percent[0]" xfId="712"/>
+    <cellStyle name="常规 162" xfId="712"/>
     <cellStyle name="常规 157" xfId="713"/>
-    <cellStyle name="常规 162" xfId="714"/>
+    <cellStyle name="Percent[0]" xfId="714"/>
     <cellStyle name="Percent_!!!GO" xfId="715"/>
     <cellStyle name="PERCENTAGE" xfId="716"/>
-    <cellStyle name="Pourcentage_pldt" xfId="717"/>
-    <cellStyle name="好_设备管理部" xfId="718"/>
-    <cellStyle name="Prefilled" xfId="719"/>
-    <cellStyle name="样式 1" xfId="720"/>
-    <cellStyle name="PrePop Currency (0)" xfId="721"/>
-    <cellStyle name="强调 1" xfId="722"/>
-    <cellStyle name="PrePop Currency (2)" xfId="723"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="724"/>
-    <cellStyle name="PrePop Units (1)" xfId="725"/>
-    <cellStyle name="强调文字颜色 5 2_棒线材产品销售跟踪表" xfId="726"/>
+    <cellStyle name="好_设备管理部" xfId="717"/>
+    <cellStyle name="Pourcentage_pldt" xfId="718"/>
+    <cellStyle name="样式 1" xfId="719"/>
+    <cellStyle name="Prefilled" xfId="720"/>
+    <cellStyle name="强调 1" xfId="721"/>
+    <cellStyle name="PrePop Currency (0)" xfId="722"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="723"/>
+    <cellStyle name="PrePop Currency (2)" xfId="724"/>
+    <cellStyle name="强调文字颜色 5 2_棒线材产品销售跟踪表" xfId="725"/>
+    <cellStyle name="PrePop Units (1)" xfId="726"/>
     <cellStyle name="PrePop Units (2)" xfId="727"/>
     <cellStyle name="pricing" xfId="728"/>
     <cellStyle name="Product" xfId="729"/>
@@ -6678,11 +6658,11 @@
     <cellStyle name="RevList" xfId="738"/>
     <cellStyle name="RevList 2" xfId="739"/>
     <cellStyle name="RevList_2012年1-9月成本网对标资料（中钢协返回" xfId="740"/>
-    <cellStyle name="RowLevel_0" xfId="741"/>
-    <cellStyle name="差_2008年县级公安保障标准落实奖励经费分配测算" xfId="742"/>
+    <cellStyle name="差_2008年县级公安保障标准落实奖励经费分配测算" xfId="741"/>
+    <cellStyle name="RowLevel_0" xfId="742"/>
     <cellStyle name="SAPBEXaggDataEmph" xfId="743"/>
-    <cellStyle name="SAPBEXaggItem" xfId="744"/>
-    <cellStyle name="千位分隔[0] 3" xfId="745"/>
+    <cellStyle name="千位分隔[0] 3" xfId="744"/>
+    <cellStyle name="SAPBEXaggItem" xfId="745"/>
     <cellStyle name="SAPBEXaggItemX" xfId="746"/>
     <cellStyle name="SAPBEXchaText" xfId="747"/>
     <cellStyle name="SAPBEXexcBad7" xfId="748"/>
@@ -6690,15 +6670,15 @@
     <cellStyle name="SAPBEXexcBad9" xfId="750"/>
     <cellStyle name="SAPBEXexcCritical4" xfId="751"/>
     <cellStyle name="SAPBEXexcCritical5" xfId="752"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="753"/>
-    <cellStyle name="差_三钢厂2012年6月份财务报表" xfId="754"/>
+    <cellStyle name="差_三钢厂2012年6月份财务报表" xfId="753"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="754"/>
     <cellStyle name="SAPBEXexcGood3" xfId="755"/>
     <cellStyle name="SAPBEXfilterDrill" xfId="756"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="757"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="758"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="757"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="758"/>
     <cellStyle name="SAPBEXfilterText" xfId="759"/>
-    <cellStyle name="SAPBEXformats" xfId="760"/>
-    <cellStyle name="公司标准表 2" xfId="761"/>
+    <cellStyle name="公司标准表 2" xfId="760"/>
+    <cellStyle name="SAPBEXformats" xfId="761"/>
     <cellStyle name="SAPBEXheaderItem" xfId="762"/>
     <cellStyle name="SAPBEXheaderText" xfId="763"/>
     <cellStyle name="SAPBEXHLevel0" xfId="764"/>
@@ -6721,25 +6701,25 @@
     <cellStyle name="SAPBEXundefined" xfId="781"/>
     <cellStyle name="SHADEDSTORES" xfId="782"/>
     <cellStyle name="SingleLineAcctgn" xfId="783"/>
-    <cellStyle name="Special" xfId="784"/>
-    <cellStyle name="好_2006年全省财力计算表（中央、决算）" xfId="785"/>
-    <cellStyle name="specstores" xfId="786"/>
-    <cellStyle name="烹拳_ +Foil &amp; -FOIL &amp; PAPER" xfId="787"/>
+    <cellStyle name="好_2006年全省财力计算表（中央、决算）" xfId="784"/>
+    <cellStyle name="Special" xfId="785"/>
+    <cellStyle name="烹拳_ +Foil &amp; -FOIL &amp; PAPER" xfId="786"/>
+    <cellStyle name="specstores" xfId="787"/>
     <cellStyle name="sstot" xfId="788"/>
     <cellStyle name="Standard_AREAS" xfId="789"/>
-    <cellStyle name="style" xfId="790"/>
+    <cellStyle name="常规 23" xfId="790"/>
     <cellStyle name="常规 18" xfId="791"/>
-    <cellStyle name="常规 23" xfId="792"/>
+    <cellStyle name="style" xfId="792"/>
     <cellStyle name="style1" xfId="793"/>
     <cellStyle name="sub" xfId="794"/>
     <cellStyle name="Subtotal" xfId="795"/>
-    <cellStyle name="t" xfId="796"/>
-    <cellStyle name="好_检验表" xfId="797"/>
+    <cellStyle name="好_检验表" xfId="796"/>
+    <cellStyle name="t" xfId="797"/>
     <cellStyle name="t_HVAC Equipment (3)" xfId="798"/>
     <cellStyle name="Temp" xfId="799"/>
     <cellStyle name="Text Indent A" xfId="800"/>
-    <cellStyle name="Text Indent B" xfId="801"/>
-    <cellStyle name="差_05玉溪" xfId="802"/>
+    <cellStyle name="差_05玉溪" xfId="801"/>
+    <cellStyle name="Text Indent B" xfId="802"/>
     <cellStyle name="Text Indent C" xfId="803"/>
     <cellStyle name="Thousands" xfId="804"/>
     <cellStyle name="Title" xfId="805"/>
@@ -6750,15 +6730,15 @@
     <cellStyle name="Warning Text" xfId="810"/>
     <cellStyle name="?_guyan" xfId="811"/>
     <cellStyle name="む|靃0]_Revenuesy Lr L" xfId="812"/>
-    <cellStyle name="む|靇Revenuenuesy L" xfId="813"/>
-    <cellStyle name="强调 2" xfId="814"/>
+    <cellStyle name="强调 2" xfId="813"/>
+    <cellStyle name="む|靇Revenuenuesy L" xfId="814"/>
     <cellStyle name="?_Fem.Pro" xfId="815"/>
     <cellStyle name="籵_laroux" xfId="816"/>
     <cellStyle name="遽_4QURT" xfId="817"/>
     <cellStyle name="煦弇[0]_laroux" xfId="818"/>
     <cellStyle name="煦弇_laroux" xfId="819"/>
-    <cellStyle name="弇_laroux" xfId="820"/>
-    <cellStyle name="好_财政供养人员" xfId="821"/>
+    <cellStyle name="好_财政供养人员" xfId="820"/>
+    <cellStyle name="弇_laroux" xfId="821"/>
     <cellStyle name="弇煦路[0]_050978" xfId="822"/>
     <cellStyle name="弇煦路_050978" xfId="823"/>
     <cellStyle name="百分比 2 10" xfId="824"/>
@@ -6772,8 +6752,8 @@
     <cellStyle name="百分比 2 5 2" xfId="832"/>
     <cellStyle name="百分比 2 6" xfId="833"/>
     <cellStyle name="百分比 2 7" xfId="834"/>
-    <cellStyle name="百分比 2 9" xfId="835"/>
-    <cellStyle name="适中 2 2" xfId="836"/>
+    <cellStyle name="适中 2 2" xfId="835"/>
+    <cellStyle name="百分比 2 9" xfId="836"/>
     <cellStyle name="百分比 3" xfId="837"/>
     <cellStyle name="百分比 3 2" xfId="838"/>
     <cellStyle name="百分比 4" xfId="839"/>
@@ -6789,25 +6769,25 @@
     <cellStyle name="閉撰蟈諉" xfId="849"/>
     <cellStyle name="编号" xfId="850"/>
     <cellStyle name="标题 1 2" xfId="851"/>
-    <cellStyle name="标题 1 2 2" xfId="852"/>
-    <cellStyle name="标题 4 2_棒线材产品销售跟踪表" xfId="853"/>
+    <cellStyle name="标题 4 2_棒线材产品销售跟踪表" xfId="852"/>
+    <cellStyle name="标题 1 2 2" xfId="853"/>
     <cellStyle name="标题 1 2_棒线材产品销售跟踪表" xfId="854"/>
     <cellStyle name="标题 1 3" xfId="855"/>
-    <cellStyle name="标题 2 2 2" xfId="856"/>
-    <cellStyle name="差_201312二轧分品种表" xfId="857"/>
+    <cellStyle name="差_201312二轧分品种表" xfId="856"/>
+    <cellStyle name="标题 2 2 2" xfId="857"/>
     <cellStyle name="标题 2 2_棒线材产品销售跟踪表" xfId="858"/>
     <cellStyle name="标题 2 3" xfId="859"/>
     <cellStyle name="标题 3 2" xfId="860"/>
-    <cellStyle name="标题 3 2 2" xfId="861"/>
-    <cellStyle name="差_2012年1-6月" xfId="862"/>
+    <cellStyle name="差_2012年1-6月" xfId="861"/>
+    <cellStyle name="标题 3 2 2" xfId="862"/>
     <cellStyle name="标题 3 2_棒线材产品销售跟踪表" xfId="863"/>
     <cellStyle name="标题 3 3" xfId="864"/>
-    <cellStyle name="标题 4 2" xfId="865"/>
-    <cellStyle name="千位分隔 3" xfId="866"/>
-    <cellStyle name="标题 4 2 2" xfId="867"/>
-    <cellStyle name="千位分隔 3 2" xfId="868"/>
-    <cellStyle name="标题 5" xfId="869"/>
-    <cellStyle name="好_第一部分：综合全" xfId="870"/>
+    <cellStyle name="千位分隔 3" xfId="865"/>
+    <cellStyle name="标题 4 2" xfId="866"/>
+    <cellStyle name="千位分隔 3 2" xfId="867"/>
+    <cellStyle name="标题 4 2 2" xfId="868"/>
+    <cellStyle name="好_第一部分：综合全" xfId="869"/>
+    <cellStyle name="标题 5" xfId="870"/>
     <cellStyle name="标题 5 2" xfId="871"/>
     <cellStyle name="標準_1.中国建行主要会表格式" xfId="872"/>
     <cellStyle name="表标题" xfId="873"/>
@@ -6821,13 +6801,13 @@
     <cellStyle name="差_00省级(定稿)" xfId="881"/>
     <cellStyle name="差_03昭通" xfId="882"/>
     <cellStyle name="差_0502通海县" xfId="883"/>
-    <cellStyle name="差_0605石屏县" xfId="884"/>
+    <cellStyle name="常规 81" xfId="884"/>
     <cellStyle name="常规 76" xfId="885"/>
-    <cellStyle name="常规 81" xfId="886"/>
+    <cellStyle name="差_0605石屏县" xfId="886"/>
     <cellStyle name="差_1003牟定县" xfId="887"/>
     <cellStyle name="差_1110洱源县" xfId="888"/>
-    <cellStyle name="差_11大理" xfId="889"/>
-    <cellStyle name="解释性文本 2_棒线材产品销售跟踪表" xfId="890"/>
+    <cellStyle name="解释性文本 2_棒线材产品销售跟踪表" xfId="889"/>
+    <cellStyle name="差_11大理" xfId="890"/>
     <cellStyle name="差_13年预算对比梅钢" xfId="891"/>
     <cellStyle name="差_2、土地面积、人口、粮食产量基本情况" xfId="892"/>
     <cellStyle name="差_2006年分析表" xfId="893"/>
@@ -6836,14 +6816,14 @@
     <cellStyle name="差_2006年在职人员情况" xfId="896"/>
     <cellStyle name="差_2007年可用财力" xfId="897"/>
     <cellStyle name="差_2007年人员分部门统计表" xfId="898"/>
-    <cellStyle name="差_2007年政法部门业务指标" xfId="899"/>
-    <cellStyle name="差_教师绩效工资测算表（离退休按各地上报数测算）2009年1月1日" xfId="900"/>
+    <cellStyle name="差_教师绩效工资测算表（离退休按各地上报数测算）2009年1月1日" xfId="899"/>
+    <cellStyle name="差_2007年政法部门业务指标" xfId="900"/>
     <cellStyle name="差_2009年一般性转移支付标准工资" xfId="901"/>
-    <cellStyle name="差_2009年一般性转移支付标准工资_~4190974" xfId="902"/>
-    <cellStyle name="常规 2 5_Book1" xfId="903"/>
+    <cellStyle name="常规 2 5_Book1" xfId="902"/>
+    <cellStyle name="差_2009年一般性转移支付标准工资_~4190974" xfId="903"/>
     <cellStyle name="差_2009年一般性转移支付标准工资_地方配套按人均增幅控制8.30xl" xfId="904"/>
-    <cellStyle name="差_2009年一般性转移支付标准工资_地方配套按人均增幅控制8.30一般预算平均增幅、人均可用财力平均增幅两次控制、社会治安系数调整、案件数调整xl" xfId="905"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="906"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="905"/>
+    <cellStyle name="差_2009年一般性转移支付标准工资_地方配套按人均增幅控制8.30一般预算平均增幅、人均可用财力平均增幅两次控制、社会治安系数调整、案件数调整xl" xfId="906"/>
     <cellStyle name="差_2009年一般性转移支付标准工资_地方配套按人均增幅控制8.31（调整结案率后）xl" xfId="907"/>
     <cellStyle name="差_2009年一般性转移支付标准工资_奖励补助测算5.22测试" xfId="908"/>
     <cellStyle name="差_2009年一般性转移支付标准工资_奖励补助测算5.23新" xfId="909"/>
@@ -6863,15 +6843,15 @@
     <cellStyle name="差_财务部降本增效2016" xfId="923"/>
     <cellStyle name="差_------财务费用降本分解3.02" xfId="924"/>
     <cellStyle name="差_财政供养人员" xfId="925"/>
-    <cellStyle name="差_财政支出对上级的依赖程度" xfId="926"/>
-    <cellStyle name="好_能源环保部" xfId="927"/>
+    <cellStyle name="好_能源环保部" xfId="926"/>
+    <cellStyle name="差_财政支出对上级的依赖程度" xfId="927"/>
     <cellStyle name="差_城建部门" xfId="928"/>
     <cellStyle name="差_地方配套按人均增幅控制8.30xl" xfId="929"/>
     <cellStyle name="差_地方配套按人均增幅控制8.30一般预算平均增幅、人均可用财力平均增幅两次控制、社会治安系数调整、案件数调整xl" xfId="930"/>
     <cellStyle name="差_地方配套按人均增幅控制8.31（调整结案率后）xl" xfId="931"/>
     <cellStyle name="差_第一部分：综合全" xfId="932"/>
-    <cellStyle name="差_附件：事业部和子公司预算目标测算结果上报表式" xfId="933"/>
-    <cellStyle name="差_铁水成本竞争力反馈表" xfId="934"/>
+    <cellStyle name="差_铁水成本竞争力反馈表" xfId="933"/>
+    <cellStyle name="差_附件：事业部和子公司预算目标测算结果上报表式" xfId="934"/>
     <cellStyle name="差_复件 2015年降本增效项目分解表（0130）" xfId="935"/>
     <cellStyle name="差_副本73283696546880457822010-04-29" xfId="936"/>
     <cellStyle name="差_副本73283696546880457822010-04-29 2" xfId="937"/>
@@ -6886,9 +6866,9 @@
     <cellStyle name="差_检验表" xfId="946"/>
     <cellStyle name="差_检验表（调整后）" xfId="947"/>
     <cellStyle name="差_奖励补助测算5.22测试" xfId="948"/>
-    <cellStyle name="差_奖励补助测算5.23新" xfId="949"/>
+    <cellStyle name="日期" xfId="949"/>
     <cellStyle name="强调文字颜色 2 2_棒线材产品销售跟踪表" xfId="950"/>
-    <cellStyle name="日期" xfId="951"/>
+    <cellStyle name="差_奖励补助测算5.23新" xfId="951"/>
     <cellStyle name="差_奖励补助测算5.24冯铸" xfId="952"/>
     <cellStyle name="差_奖励补助测算7.23" xfId="953"/>
     <cellStyle name="差_奖励补助测算7.25" xfId="954"/>
@@ -6900,14 +6880,14 @@
     <cellStyle name="差_炼轧厂" xfId="960"/>
     <cellStyle name="差_能源环保部" xfId="961"/>
     <cellStyle name="差_能源环保部能源与环保降本增效措施(0209)" xfId="962"/>
-    <cellStyle name="差_能源环保部能源与环保降本增效措施(0209)_设备管理部" xfId="963"/>
-    <cellStyle name="常规 3 2 2 3" xfId="964"/>
+    <cellStyle name="常规 3 2 2 3" xfId="963"/>
+    <cellStyle name="差_能源环保部能源与环保降本增效措施(0209)_设备管理部" xfId="964"/>
     <cellStyle name="差_热电14年本月降本增效分析" xfId="965"/>
     <cellStyle name="差_三季度－表二" xfId="966"/>
     <cellStyle name="差_设备管理部" xfId="967"/>
     <cellStyle name="差_特钢事业部轧钢2016年降本项目表" xfId="968"/>
-    <cellStyle name="差_卫生部门" xfId="969"/>
-    <cellStyle name="链接单元格 2 2" xfId="970"/>
+    <cellStyle name="链接单元格 2 2" xfId="969"/>
+    <cellStyle name="差_卫生部门" xfId="970"/>
     <cellStyle name="差_文体广播部门" xfId="971"/>
     <cellStyle name="差_下半年禁毒办案经费分配2544.3万元" xfId="972"/>
     <cellStyle name="差_下半年禁吸戒毒经费1000万元" xfId="973"/>
@@ -6917,88 +6897,88 @@
     <cellStyle name="差_云南省2008年中小学教师人数统计表" xfId="977"/>
     <cellStyle name="差_云南省2008年转移支付测算——州市本级考核部分及政策性测算" xfId="978"/>
     <cellStyle name="差_指标四" xfId="979"/>
-    <cellStyle name="差_指标五" xfId="980"/>
-    <cellStyle name="好_奖励补助测算5.23新" xfId="981"/>
+    <cellStyle name="好_奖励补助测算5.23新" xfId="980"/>
+    <cellStyle name="差_指标五" xfId="981"/>
     <cellStyle name="差_制造管理部" xfId="982"/>
-    <cellStyle name="常规 10 2" xfId="983"/>
-    <cellStyle name="好_M01-2(州市补助收入)" xfId="984"/>
+    <cellStyle name="好_M01-2(州市补助收入)" xfId="983"/>
+    <cellStyle name="常规 10 2" xfId="984"/>
     <cellStyle name="常规 10_特钢事业部轧钢2016年降本项目表" xfId="985"/>
-    <cellStyle name="常规 100" xfId="986"/>
-    <cellStyle name="常规 4 2 3" xfId="987"/>
+    <cellStyle name="常规 4 2 3" xfId="986"/>
+    <cellStyle name="常规 100" xfId="987"/>
     <cellStyle name="常规 101" xfId="988"/>
     <cellStyle name="常规 102" xfId="989"/>
     <cellStyle name="常规 103" xfId="990"/>
     <cellStyle name="常规 104" xfId="991"/>
-    <cellStyle name="常规 105" xfId="992"/>
-    <cellStyle name="常规 110" xfId="993"/>
-    <cellStyle name="常规 106" xfId="994"/>
-    <cellStyle name="常规 111" xfId="995"/>
-    <cellStyle name="常规 108" xfId="996"/>
+    <cellStyle name="常规 110" xfId="992"/>
+    <cellStyle name="常规 105" xfId="993"/>
+    <cellStyle name="常规 111" xfId="994"/>
+    <cellStyle name="常规 106" xfId="995"/>
+    <cellStyle name="检查单元格 2 2" xfId="996"/>
     <cellStyle name="常规 113" xfId="997"/>
-    <cellStyle name="检查单元格 2 2" xfId="998"/>
-    <cellStyle name="常规 109" xfId="999"/>
-    <cellStyle name="常规 114" xfId="1000"/>
+    <cellStyle name="常规 108" xfId="998"/>
+    <cellStyle name="常规 114" xfId="999"/>
+    <cellStyle name="常规 109" xfId="1000"/>
     <cellStyle name="常规 11" xfId="1001"/>
     <cellStyle name="常规 11 2" xfId="1002"/>
-    <cellStyle name="常规 115" xfId="1003"/>
-    <cellStyle name="常规 120" xfId="1004"/>
-    <cellStyle name="常规 116" xfId="1005"/>
+    <cellStyle name="常规 120" xfId="1003"/>
+    <cellStyle name="常规 115" xfId="1004"/>
+    <cellStyle name="常规 5_13年费用预算-五稿" xfId="1005"/>
     <cellStyle name="常规 121" xfId="1006"/>
-    <cellStyle name="常规 5_13年费用预算-五稿" xfId="1007"/>
-    <cellStyle name="常规 117" xfId="1008"/>
-    <cellStyle name="常规 122" xfId="1009"/>
-    <cellStyle name="常规 118" xfId="1010"/>
-    <cellStyle name="常规 123" xfId="1011"/>
-    <cellStyle name="常规 119" xfId="1012"/>
-    <cellStyle name="常规 124" xfId="1013"/>
-    <cellStyle name="常规 125" xfId="1014"/>
-    <cellStyle name="常规 130" xfId="1015"/>
-    <cellStyle name="常规 126" xfId="1016"/>
-    <cellStyle name="常规 131" xfId="1017"/>
-    <cellStyle name="常规 127" xfId="1018"/>
-    <cellStyle name="常规 132" xfId="1019"/>
-    <cellStyle name="常规 128" xfId="1020"/>
-    <cellStyle name="常规 133" xfId="1021"/>
-    <cellStyle name="常规 129" xfId="1022"/>
-    <cellStyle name="常规 134" xfId="1023"/>
+    <cellStyle name="常规 116" xfId="1007"/>
+    <cellStyle name="常规 122" xfId="1008"/>
+    <cellStyle name="常规 117" xfId="1009"/>
+    <cellStyle name="常规 123" xfId="1010"/>
+    <cellStyle name="常规 118" xfId="1011"/>
+    <cellStyle name="常规 124" xfId="1012"/>
+    <cellStyle name="常规 119" xfId="1013"/>
+    <cellStyle name="常规 130" xfId="1014"/>
+    <cellStyle name="常规 125" xfId="1015"/>
+    <cellStyle name="常规 131" xfId="1016"/>
+    <cellStyle name="常规 126" xfId="1017"/>
+    <cellStyle name="常规 132" xfId="1018"/>
+    <cellStyle name="常规 127" xfId="1019"/>
+    <cellStyle name="常规 133" xfId="1020"/>
+    <cellStyle name="常规 128" xfId="1021"/>
+    <cellStyle name="常规 134" xfId="1022"/>
+    <cellStyle name="常规 129" xfId="1023"/>
     <cellStyle name="常规 13" xfId="1024"/>
-    <cellStyle name="常规 135" xfId="1025"/>
-    <cellStyle name="常规 140" xfId="1026"/>
-    <cellStyle name="常规 136" xfId="1027"/>
-    <cellStyle name="常规 141" xfId="1028"/>
-    <cellStyle name="常规 137" xfId="1029"/>
-    <cellStyle name="常规 142" xfId="1030"/>
-    <cellStyle name="常规 5 2" xfId="1031"/>
-    <cellStyle name="汇总 2_棒线材产品销售跟踪表" xfId="1032"/>
-    <cellStyle name="常规 138" xfId="1033"/>
-    <cellStyle name="常规 143" xfId="1034"/>
-    <cellStyle name="常规 139" xfId="1035"/>
+    <cellStyle name="常规 140" xfId="1025"/>
+    <cellStyle name="常规 135" xfId="1026"/>
+    <cellStyle name="常规 141" xfId="1027"/>
+    <cellStyle name="常规 136" xfId="1028"/>
+    <cellStyle name="汇总 2_棒线材产品销售跟踪表" xfId="1029"/>
+    <cellStyle name="常规 5 2" xfId="1030"/>
+    <cellStyle name="常规 142" xfId="1031"/>
+    <cellStyle name="常规 137" xfId="1032"/>
+    <cellStyle name="常规 143" xfId="1033"/>
+    <cellStyle name="常规 138" xfId="1034"/>
+    <cellStyle name="常规 4 3 2" xfId="1035"/>
     <cellStyle name="常规 144" xfId="1036"/>
-    <cellStyle name="常规 4 3 2" xfId="1037"/>
+    <cellStyle name="常规 139" xfId="1037"/>
     <cellStyle name="常规 14" xfId="1038"/>
-    <cellStyle name="常规 145" xfId="1039"/>
-    <cellStyle name="常规 150" xfId="1040"/>
-    <cellStyle name="常规 146" xfId="1041"/>
-    <cellStyle name="常规 151" xfId="1042"/>
-    <cellStyle name="常规 147" xfId="1043"/>
-    <cellStyle name="常规 152" xfId="1044"/>
-    <cellStyle name="常规 148" xfId="1045"/>
-    <cellStyle name="常规 153" xfId="1046"/>
-    <cellStyle name="常规 15" xfId="1047"/>
-    <cellStyle name="常规 20" xfId="1048"/>
-    <cellStyle name="常规 155" xfId="1049"/>
-    <cellStyle name="常规 160" xfId="1050"/>
-    <cellStyle name="常规 158" xfId="1051"/>
-    <cellStyle name="常规 163" xfId="1052"/>
-    <cellStyle name="常规 159" xfId="1053"/>
-    <cellStyle name="常规 164" xfId="1054"/>
-    <cellStyle name="常规 16" xfId="1055"/>
-    <cellStyle name="常规 21" xfId="1056"/>
-    <cellStyle name="常规 19" xfId="1057"/>
-    <cellStyle name="常规 24" xfId="1058"/>
+    <cellStyle name="常规 150" xfId="1039"/>
+    <cellStyle name="常规 145" xfId="1040"/>
+    <cellStyle name="常规 151" xfId="1041"/>
+    <cellStyle name="常规 146" xfId="1042"/>
+    <cellStyle name="常规 152" xfId="1043"/>
+    <cellStyle name="常规 147" xfId="1044"/>
+    <cellStyle name="常规 153" xfId="1045"/>
+    <cellStyle name="常规 148" xfId="1046"/>
+    <cellStyle name="常规 20" xfId="1047"/>
+    <cellStyle name="常规 15" xfId="1048"/>
+    <cellStyle name="常规 160" xfId="1049"/>
+    <cellStyle name="常规 155" xfId="1050"/>
+    <cellStyle name="常规 163" xfId="1051"/>
+    <cellStyle name="常规 158" xfId="1052"/>
+    <cellStyle name="常规 164" xfId="1053"/>
+    <cellStyle name="常规 159" xfId="1054"/>
+    <cellStyle name="常规 21" xfId="1055"/>
+    <cellStyle name="常规 16" xfId="1056"/>
+    <cellStyle name="常规 24" xfId="1057"/>
+    <cellStyle name="常规 19" xfId="1058"/>
     <cellStyle name="常规 2" xfId="1059"/>
-    <cellStyle name="常规 2 10" xfId="1060"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="1061"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="1060"/>
+    <cellStyle name="常规 2 10" xfId="1061"/>
     <cellStyle name="常规 2 11" xfId="1062"/>
     <cellStyle name="常规 2 2" xfId="1063"/>
     <cellStyle name="常规 2 2 2" xfId="1064"/>
@@ -7013,21 +6993,21 @@
     <cellStyle name="常规 2 5 2" xfId="1073"/>
     <cellStyle name="常规 2 6" xfId="1074"/>
     <cellStyle name="常规 2 7" xfId="1075"/>
-    <cellStyle name="常规 2 8" xfId="1076"/>
-    <cellStyle name="输入 2" xfId="1077"/>
-    <cellStyle name="常规 2 9" xfId="1078"/>
-    <cellStyle name="输入 3" xfId="1079"/>
+    <cellStyle name="输入 2" xfId="1076"/>
+    <cellStyle name="常规 2 8" xfId="1077"/>
+    <cellStyle name="输入 3" xfId="1078"/>
+    <cellStyle name="常规 2 9" xfId="1079"/>
     <cellStyle name="常规 2_2018年火车局车误时费日记录表表" xfId="1080"/>
-    <cellStyle name="常规 25" xfId="1081"/>
-    <cellStyle name="常规 30" xfId="1082"/>
-    <cellStyle name="常规 26" xfId="1083"/>
-    <cellStyle name="常规 31" xfId="1084"/>
-    <cellStyle name="常规 27" xfId="1085"/>
-    <cellStyle name="常规 32" xfId="1086"/>
-    <cellStyle name="常规 28" xfId="1087"/>
-    <cellStyle name="常规 33" xfId="1088"/>
-    <cellStyle name="常规 29" xfId="1089"/>
-    <cellStyle name="常规 34" xfId="1090"/>
+    <cellStyle name="常规 30" xfId="1081"/>
+    <cellStyle name="常规 25" xfId="1082"/>
+    <cellStyle name="常规 31" xfId="1083"/>
+    <cellStyle name="常规 26" xfId="1084"/>
+    <cellStyle name="常规 32" xfId="1085"/>
+    <cellStyle name="常规 27" xfId="1086"/>
+    <cellStyle name="常规 33" xfId="1087"/>
+    <cellStyle name="常规 28" xfId="1088"/>
+    <cellStyle name="常规 34" xfId="1089"/>
+    <cellStyle name="常规 29" xfId="1090"/>
     <cellStyle name="常规 3" xfId="1091"/>
     <cellStyle name="常规 3 2" xfId="1092"/>
     <cellStyle name="常规 3 2 2" xfId="1093"/>
@@ -7035,66 +7015,66 @@
     <cellStyle name="常规 3 2 2 2 2" xfId="1095"/>
     <cellStyle name="常规 3 3" xfId="1096"/>
     <cellStyle name="常规 3_13年费用预算-五稿" xfId="1097"/>
-    <cellStyle name="常规 35" xfId="1098"/>
-    <cellStyle name="常规 40" xfId="1099"/>
-    <cellStyle name="常规 36" xfId="1100"/>
-    <cellStyle name="常规 41" xfId="1101"/>
-    <cellStyle name="常规 37" xfId="1102"/>
-    <cellStyle name="常规 42" xfId="1103"/>
+    <cellStyle name="常规 40" xfId="1098"/>
+    <cellStyle name="常规 35" xfId="1099"/>
+    <cellStyle name="常规 41" xfId="1100"/>
+    <cellStyle name="常规 36" xfId="1101"/>
+    <cellStyle name="常规 42" xfId="1102"/>
+    <cellStyle name="常规 37" xfId="1103"/>
     <cellStyle name="常规 4 2" xfId="1104"/>
-    <cellStyle name="常规 4 2 2" xfId="1105"/>
-    <cellStyle name="常规 4 4" xfId="1106"/>
+    <cellStyle name="常规 4 4" xfId="1105"/>
+    <cellStyle name="常规 4 2 2" xfId="1106"/>
     <cellStyle name="常规 4 3" xfId="1107"/>
     <cellStyle name="常规 4 4 2" xfId="1108"/>
-    <cellStyle name="常规 4_13年费用预算-五稿" xfId="1109"/>
+    <cellStyle name="常规 74" xfId="1109"/>
     <cellStyle name="常规 69" xfId="1110"/>
-    <cellStyle name="常规 74" xfId="1111"/>
-    <cellStyle name="常规 45" xfId="1112"/>
-    <cellStyle name="常规 50" xfId="1113"/>
-    <cellStyle name="常规 46" xfId="1114"/>
-    <cellStyle name="常规 51" xfId="1115"/>
-    <cellStyle name="常规 47" xfId="1116"/>
-    <cellStyle name="常规 52" xfId="1117"/>
-    <cellStyle name="常规 48" xfId="1118"/>
-    <cellStyle name="常规 53" xfId="1119"/>
-    <cellStyle name="常规 49" xfId="1120"/>
-    <cellStyle name="常规 54" xfId="1121"/>
+    <cellStyle name="常规 4_13年费用预算-五稿" xfId="1111"/>
+    <cellStyle name="常规 50" xfId="1112"/>
+    <cellStyle name="常规 45" xfId="1113"/>
+    <cellStyle name="常规 51" xfId="1114"/>
+    <cellStyle name="常规 46" xfId="1115"/>
+    <cellStyle name="常规 52" xfId="1116"/>
+    <cellStyle name="常规 47" xfId="1117"/>
+    <cellStyle name="常规 53" xfId="1118"/>
+    <cellStyle name="常规 48" xfId="1119"/>
+    <cellStyle name="常规 54" xfId="1120"/>
+    <cellStyle name="常规 49" xfId="1121"/>
     <cellStyle name="常规 5" xfId="1122"/>
-    <cellStyle name="常规 55" xfId="1123"/>
-    <cellStyle name="常规 60" xfId="1124"/>
-    <cellStyle name="常规 56" xfId="1125"/>
-    <cellStyle name="常规 61" xfId="1126"/>
-    <cellStyle name="常规 57" xfId="1127"/>
-    <cellStyle name="常规 62" xfId="1128"/>
-    <cellStyle name="常规 58" xfId="1129"/>
-    <cellStyle name="常规 63" xfId="1130"/>
-    <cellStyle name="常规 59" xfId="1131"/>
-    <cellStyle name="常规 64" xfId="1132"/>
+    <cellStyle name="常规 60" xfId="1123"/>
+    <cellStyle name="常规 55" xfId="1124"/>
+    <cellStyle name="常规 61" xfId="1125"/>
+    <cellStyle name="常规 56" xfId="1126"/>
+    <cellStyle name="常规 62" xfId="1127"/>
+    <cellStyle name="常规 57" xfId="1128"/>
+    <cellStyle name="常规 63" xfId="1129"/>
+    <cellStyle name="常规 58" xfId="1130"/>
+    <cellStyle name="常规 64" xfId="1131"/>
+    <cellStyle name="常规 59" xfId="1132"/>
     <cellStyle name="常规 6" xfId="1133"/>
     <cellStyle name="常规 6 2" xfId="1134"/>
-    <cellStyle name="常规 66" xfId="1135"/>
-    <cellStyle name="常规 71" xfId="1136"/>
-    <cellStyle name="常规 68" xfId="1137"/>
-    <cellStyle name="常规 73" xfId="1138"/>
+    <cellStyle name="常规 71" xfId="1135"/>
+    <cellStyle name="常规 66" xfId="1136"/>
+    <cellStyle name="常规 73" xfId="1137"/>
+    <cellStyle name="常规 68" xfId="1138"/>
     <cellStyle name="常规 7" xfId="1139"/>
     <cellStyle name="常规 7 2" xfId="1140"/>
-    <cellStyle name="常规 75" xfId="1141"/>
-    <cellStyle name="常规 80" xfId="1142"/>
-    <cellStyle name="常规 78" xfId="1143"/>
-    <cellStyle name="常规 83" xfId="1144"/>
-    <cellStyle name="常规 79" xfId="1145"/>
-    <cellStyle name="常规 84" xfId="1146"/>
+    <cellStyle name="常规 80" xfId="1141"/>
+    <cellStyle name="常规 75" xfId="1142"/>
+    <cellStyle name="常规 83" xfId="1143"/>
+    <cellStyle name="常规 78" xfId="1144"/>
+    <cellStyle name="常规 84" xfId="1145"/>
+    <cellStyle name="常规 79" xfId="1146"/>
     <cellStyle name="常规 8" xfId="1147"/>
     <cellStyle name="常规 8 2" xfId="1148"/>
     <cellStyle name="常规 8_2018年火车局车误时费日记录表表" xfId="1149"/>
-    <cellStyle name="常规 86" xfId="1150"/>
-    <cellStyle name="常规 91" xfId="1151"/>
-    <cellStyle name="常规 87" xfId="1152"/>
-    <cellStyle name="常规 92" xfId="1153"/>
-    <cellStyle name="常规 88" xfId="1154"/>
-    <cellStyle name="常规 93" xfId="1155"/>
-    <cellStyle name="常规 89" xfId="1156"/>
-    <cellStyle name="常规 94" xfId="1157"/>
+    <cellStyle name="常规 91" xfId="1150"/>
+    <cellStyle name="常规 86" xfId="1151"/>
+    <cellStyle name="常规 92" xfId="1152"/>
+    <cellStyle name="常规 87" xfId="1153"/>
+    <cellStyle name="常规 93" xfId="1154"/>
+    <cellStyle name="常规 88" xfId="1155"/>
+    <cellStyle name="常规 94" xfId="1156"/>
+    <cellStyle name="常规 89" xfId="1157"/>
     <cellStyle name="常规 9" xfId="1158"/>
     <cellStyle name="常规 9 3" xfId="1159"/>
     <cellStyle name="常规 9_13年费用预算-五稿" xfId="1160"/>
@@ -7104,8 +7084,8 @@
     <cellStyle name="常规 99" xfId="1164"/>
     <cellStyle name="超级链接" xfId="1165"/>
     <cellStyle name="超链接 2" xfId="1166"/>
-    <cellStyle name="超链接 3" xfId="1167"/>
-    <cellStyle name="好_13年预算对比梅钢" xfId="1168"/>
+    <cellStyle name="好_13年预算对比梅钢" xfId="1167"/>
+    <cellStyle name="超链接 3" xfId="1168"/>
     <cellStyle name="都寞_050978" xfId="1169"/>
     <cellStyle name="分级显示列_1_Book1" xfId="1170"/>
     <cellStyle name="公司标准表" xfId="1171"/>
@@ -7113,8 +7093,8 @@
     <cellStyle name="好 2_棒线材产品销售跟踪表" xfId="1173"/>
     <cellStyle name="好 3" xfId="1174"/>
     <cellStyle name="好_~4190974" xfId="1175"/>
-    <cellStyle name="好_~5676413" xfId="1176"/>
-    <cellStyle name="好_高中教师人数（教育厅1.6日提供）" xfId="1177"/>
+    <cellStyle name="好_高中教师人数（教育厅1.6日提供）" xfId="1176"/>
+    <cellStyle name="好_~5676413" xfId="1177"/>
     <cellStyle name="好_00省级(定稿)" xfId="1178"/>
     <cellStyle name="好_03昭通" xfId="1179"/>
     <cellStyle name="好_0502通海县" xfId="1180"/>
@@ -7152,8 +7132,8 @@
     <cellStyle name="好_Book1" xfId="1212"/>
     <cellStyle name="好_Book1_1" xfId="1213"/>
     <cellStyle name="好_Book1_2" xfId="1214"/>
-    <cellStyle name="好_Book2" xfId="1215"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="1216"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="1215"/>
+    <cellStyle name="好_Book2" xfId="1216"/>
     <cellStyle name="好_M03" xfId="1217"/>
     <cellStyle name="好_不用软件计算9.1不考虑经费管理评价xl" xfId="1218"/>
     <cellStyle name="好_财务部降本增效2016" xfId="1219"/>
@@ -7620,8 +7600,8 @@
   <sheetPr/>
   <dimension ref="B1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
